--- a/DSA questions (1).xlsx
+++ b/DSA questions (1).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akshy\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\E\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5341B1D-F12B-4A64-BF39-5F952EA567E2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2688328C-E78E-4637-9236-3578F271C180}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="8" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="4488" yWindow="1644" windowWidth="15792" windowHeight="10068" firstSheet="1" activeTab="5" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Array" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1586" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1603" uniqueCount="477">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1450,6 +1450,24 @@
   </si>
   <si>
     <t>Given a binary tree and a linked list from "leaf to node".Find and print path from "root to leaf".</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/number-of-unique-paths5339/1</t>
+  </si>
+  <si>
+    <t>Search an element in row wise and column wise sorted matrix</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZYpYur0znng&amp;t=344s&amp;ab_channel=takeUforward</t>
+  </si>
+  <si>
+    <t>Majority Element</t>
+  </si>
+  <si>
+    <t>Longest Substring without repeting characters</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/playlist?list=PL_z_8CaSLPWeYfhtuKHj-9MpYb6XQJ_f2</t>
   </si>
 </sst>
 </file>
@@ -1888,10 +1906,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
-  <dimension ref="A1:D498"/>
+  <dimension ref="A1:E498"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" zoomScale="79" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView zoomScale="79" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2339,7 +2357,9 @@
     </row>
     <row r="43" spans="1:4" ht="21">
       <c r="A43" s="5"/>
-      <c r="B43" s="6"/>
+      <c r="B43" s="6" t="s">
+        <v>474</v>
+      </c>
       <c r="C43" s="4"/>
     </row>
     <row r="44" spans="1:4" ht="21">
@@ -2451,6 +2471,9 @@
       <c r="C62" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="D62" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="63" spans="1:4" ht="21">
       <c r="A63" s="8" t="s">
@@ -2474,7 +2497,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="21">
+    <row r="65" spans="1:5" ht="21">
       <c r="A65" s="8" t="s">
         <v>42</v>
       </c>
@@ -2485,7 +2508,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="21">
+    <row r="66" spans="1:5" ht="21">
       <c r="A66" s="8" t="s">
         <v>42</v>
       </c>
@@ -2496,7 +2519,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="21">
+    <row r="67" spans="1:5" ht="21">
       <c r="A67" s="8" t="s">
         <v>42</v>
       </c>
@@ -2507,7 +2530,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="21">
+    <row r="68" spans="1:5" ht="21">
       <c r="A68" s="8" t="s">
         <v>42</v>
       </c>
@@ -2518,7 +2541,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="21">
+    <row r="69" spans="1:5" ht="21">
       <c r="A69" s="8" t="s">
         <v>42</v>
       </c>
@@ -2529,7 +2552,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="21">
+    <row r="70" spans="1:5" ht="21">
       <c r="A70" s="8" t="s">
         <v>42</v>
       </c>
@@ -2540,7 +2563,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="21">
+    <row r="71" spans="1:5" ht="21">
+      <c r="A71" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="E71" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="21">
       <c r="A72" s="5"/>
       <c r="B72" s="7"/>
       <c r="C72" s="4"/>
@@ -3598,8 +3632,10 @@
     <hyperlink ref="B497" r:id="rId122" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
     <hyperlink ref="B2" r:id="rId123" xr:uid="{E07D4FE5-46C7-AC4D-9E01-2300AA43B58A}"/>
     <hyperlink ref="B42" r:id="rId124" location=":~:text=Given%20an%20array%20of%20integers,of%20digits%20should%20be%20same." xr:uid="{C19B3859-A2D4-4B76-9A8A-D99F7EC2DCBA}"/>
+    <hyperlink ref="B71" r:id="rId125" xr:uid="{CFEC52A4-B339-4ADF-942C-C7A78AC68B32}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId126"/>
 </worksheet>
 </file>
 
@@ -3607,8 +3643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D7B7384-861B-4D74-A2D7-F52C3D9C0EF0}">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="89" workbookViewId="0">
-      <selection sqref="A1:D38"/>
+    <sheetView zoomScale="83" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -3616,7 +3652,7 @@
     <col min="1" max="1" width="18.69921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="107.09765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21">
@@ -4877,8 +4913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFABF3FB-749B-4138-834B-171C98BA04B6}">
   <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="81" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="B1" zoomScale="81" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -4913,6 +4949,9 @@
       <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="D2" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="21">
       <c r="A3" s="5" t="s">
@@ -4924,6 +4963,9 @@
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="D3" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="21">
       <c r="A4" s="5" t="s">
@@ -4968,6 +5010,9 @@
       <c r="C7" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="D7" t="s">
+        <v>466</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="21">
       <c r="A8" s="5" t="s">
@@ -5048,6 +5093,9 @@
       <c r="C14" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="D14" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="15" spans="1:4" ht="21">
       <c r="A15" s="5" t="s">
@@ -5058,6 +5106,9 @@
       </c>
       <c r="C15" s="4" t="s">
         <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="21">
@@ -6081,7 +6132,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13B26CD-4436-44E7-BE0F-F10BF9B0E501}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="66" workbookViewId="0">
+    <sheetView zoomScale="66" workbookViewId="0">
       <selection sqref="A1:D35"/>
     </sheetView>
   </sheetViews>
@@ -6820,10 +6871,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F955F28-86A0-437C-99DE-8103B4C15BB2}">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView zoomScale="81" workbookViewId="0">
-      <selection sqref="A1:D43"/>
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -6858,6 +6909,9 @@
       <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="D2" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="21">
       <c r="A3" s="5" t="s">
@@ -6869,6 +6923,9 @@
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="D3" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="21">
       <c r="A4" s="5" t="s">
@@ -6891,6 +6948,9 @@
       <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="D5" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="21">
       <c r="A6" s="5" t="s">
@@ -7308,6 +7368,11 @@
       </c>
       <c r="C43" s="4" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="21">
+      <c r="B44" s="6" t="s">
+        <v>475</v>
       </c>
     </row>
   </sheetData>
@@ -7354,17 +7419,19 @@
     <hyperlink ref="B41" r:id="rId40" xr:uid="{F152A9AF-5CBA-EC44-A9CF-07AB481435AB}"/>
     <hyperlink ref="B42" r:id="rId41" xr:uid="{346CA74F-60B7-0A4B-A612-9184D4DCFF62}"/>
     <hyperlink ref="B43" r:id="rId42" xr:uid="{8C653CB1-4954-754F-8D46-F09141A2FCDB}"/>
+    <hyperlink ref="B44" r:id="rId43" xr:uid="{E158766E-4968-49B4-8EC2-2C3364D3C43F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId44"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D022A599-70CC-4E40-82DD-92464C9493C6}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
-      <selection sqref="A1:D36"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -7399,6 +7466,9 @@
       <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="D2" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="21">
       <c r="A3" s="5" t="s">
@@ -7772,6 +7842,11 @@
       </c>
       <c r="C36" s="4" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="B38" t="s">
+        <v>476</v>
       </c>
     </row>
   </sheetData>
@@ -8528,10 +8603,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD610103-7757-4CAC-83F5-C558A417DD5E}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView topLeftCell="A25" zoomScale="91" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -8668,6 +8743,11 @@
       </c>
       <c r="D31" t="s">
         <v>465</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="B32" t="s">
+        <v>471</v>
       </c>
     </row>
   </sheetData>

--- a/DSA questions (1).xlsx
+++ b/DSA questions (1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\E\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2688328C-E78E-4637-9236-3578F271C180}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE78FDA8-D856-4CE5-ABB2-23EF07D9DDC0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4488" yWindow="1644" windowWidth="15792" windowHeight="10068" firstSheet="1" activeTab="5" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="5220" yWindow="2100" windowWidth="15792" windowHeight="10068" firstSheet="7" activeTab="11" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Array" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1603" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1616" uniqueCount="479">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -78,9 +78,6 @@
     <t>Write a program to cyclically rotate an array by one.</t>
   </si>
   <si>
-    <t>find Largest sum contiguous Subarray [V. IMP]</t>
-  </si>
-  <si>
     <t>Minimise the maximum difference between heights [V.IMP]</t>
   </si>
   <si>
@@ -1468,6 +1465,15 @@
   </si>
   <si>
     <t>https://www.youtube.com/playlist?list=PL_z_8CaSLPWeYfhtuKHj-9MpYb6XQJ_f2</t>
+  </si>
+  <si>
+    <t>Coin piles</t>
+  </si>
+  <si>
+    <t>Sliding window algorithm</t>
+  </si>
+  <si>
+    <t>find Largest sum contiguous Subarray [V. IMP] (Kadane's Algorithm)</t>
   </si>
 </sst>
 </file>
@@ -1908,8 +1914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:E498"/>
   <sheetViews>
-    <sheetView zoomScale="79" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView zoomScale="74" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1919,17 +1925,17 @@
     <col min="3" max="3" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24.6">
+    <row r="1" spans="1:4" ht="24.6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="B2" s="10" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="21">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="21">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1940,12 +1946,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="21">
+    <row r="6" spans="1:4" ht="21">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
@@ -1955,8 +1961,11 @@
       <c r="C6" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="21">
+      <c r="D6" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="21">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -1966,8 +1975,11 @@
       <c r="C7" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="21">
+      <c r="D7" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="21">
       <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
@@ -1977,8 +1989,11 @@
       <c r="C8" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="21">
+      <c r="D8" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="21">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
@@ -1989,7 +2004,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="21">
+    <row r="10" spans="1:4" ht="21">
       <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
@@ -1999,8 +2014,11 @@
       <c r="C10" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="21">
+      <c r="D10" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="21">
       <c r="A11" s="5" t="s">
         <v>5</v>
       </c>
@@ -2010,8 +2028,11 @@
       <c r="C11" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="21">
+      <c r="D11" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="21">
       <c r="A12" s="5" t="s">
         <v>5</v>
       </c>
@@ -2021,46 +2042,49 @@
       <c r="C12" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="21">
+      <c r="D12" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="21">
       <c r="A13" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>13</v>
+        <v>478</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="21">
+    <row r="14" spans="1:4" ht="21">
       <c r="A14" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="21">
+    <row r="15" spans="1:4" ht="21">
       <c r="A15" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="21">
+    <row r="16" spans="1:4" ht="21">
       <c r="A16" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>4</v>
@@ -2071,7 +2095,7 @@
         <v>5</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>4</v>
@@ -2082,7 +2106,7 @@
         <v>5</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>4</v>
@@ -2093,7 +2117,7 @@
         <v>5</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>4</v>
@@ -2104,7 +2128,7 @@
         <v>5</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>4</v>
@@ -2115,7 +2139,7 @@
         <v>5</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>4</v>
@@ -2126,7 +2150,7 @@
         <v>5</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>4</v>
@@ -2137,7 +2161,7 @@
         <v>5</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>4</v>
@@ -2148,7 +2172,7 @@
         <v>5</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>4</v>
@@ -2159,7 +2183,7 @@
         <v>5</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>4</v>
@@ -2170,7 +2194,7 @@
         <v>5</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>4</v>
@@ -2181,7 +2205,7 @@
         <v>5</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>4</v>
@@ -2192,7 +2216,7 @@
         <v>5</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>4</v>
@@ -2203,7 +2227,7 @@
         <v>5</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>4</v>
@@ -2214,7 +2238,7 @@
         <v>5</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>4</v>
@@ -2225,7 +2249,7 @@
         <v>5</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>4</v>
@@ -2236,7 +2260,7 @@
         <v>5</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>4</v>
@@ -2247,7 +2271,7 @@
         <v>5</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>4</v>
@@ -2258,7 +2282,7 @@
         <v>5</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>4</v>
@@ -2269,7 +2293,7 @@
         <v>5</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>4</v>
@@ -2280,7 +2304,7 @@
         <v>5</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>4</v>
@@ -2291,7 +2315,7 @@
         <v>5</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>4</v>
@@ -2302,7 +2326,7 @@
         <v>5</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>4</v>
@@ -2313,7 +2337,7 @@
         <v>5</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>4</v>
@@ -2324,7 +2348,7 @@
         <v>5</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>4</v>
@@ -2335,7 +2359,7 @@
         <v>5</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>4</v>
@@ -2346,19 +2370,19 @@
         <v>5</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D42" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="21">
       <c r="A43" s="5"/>
       <c r="B43" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C43" s="4"/>
     </row>
@@ -2449,38 +2473,38 @@
     </row>
     <row r="61" spans="1:4" ht="21">
       <c r="A61" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B61" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B61" s="6" t="s">
-        <v>43</v>
-      </c>
       <c r="C61" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D61" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="21">
       <c r="A62" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D62" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="21">
       <c r="A63" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>4</v>
@@ -2488,10 +2512,10 @@
     </row>
     <row r="64" spans="1:4" ht="21">
       <c r="A64" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>4</v>
@@ -2499,10 +2523,10 @@
     </row>
     <row r="65" spans="1:5" ht="21">
       <c r="A65" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>4</v>
@@ -2510,10 +2534,10 @@
     </row>
     <row r="66" spans="1:5" ht="21">
       <c r="A66" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>4</v>
@@ -2521,10 +2545,10 @@
     </row>
     <row r="67" spans="1:5" ht="21">
       <c r="A67" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>4</v>
@@ -2532,10 +2556,10 @@
     </row>
     <row r="68" spans="1:5" ht="21">
       <c r="A68" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>4</v>
@@ -2543,10 +2567,10 @@
     </row>
     <row r="69" spans="1:5" ht="21">
       <c r="A69" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>4</v>
@@ -2554,10 +2578,10 @@
     </row>
     <row r="70" spans="1:5" ht="21">
       <c r="A70" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>4</v>
@@ -2565,13 +2589,13 @@
     </row>
     <row r="71" spans="1:5" ht="21">
       <c r="A71" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B71" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="E71" t="s">
         <v>472</v>
-      </c>
-      <c r="E71" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="21">
@@ -2652,10 +2676,10 @@
     </row>
     <row r="419" spans="1:4" ht="21">
       <c r="A419" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="B419" s="6" t="s">
         <v>387</v>
-      </c>
-      <c r="B419" s="6" t="s">
-        <v>388</v>
       </c>
       <c r="C419" s="4" t="s">
         <v>4</v>
@@ -2663,10 +2687,10 @@
     </row>
     <row r="420" spans="1:4" ht="21">
       <c r="A420" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B420" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C420" s="4" t="s">
         <v>4</v>
@@ -2674,10 +2698,10 @@
     </row>
     <row r="421" spans="1:4" ht="21">
       <c r="A421" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B421" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C421" s="4" t="s">
         <v>4</v>
@@ -2685,10 +2709,10 @@
     </row>
     <row r="422" spans="1:4" ht="21">
       <c r="A422" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B422" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C422" s="4" t="s">
         <v>4</v>
@@ -2696,10 +2720,10 @@
     </row>
     <row r="423" spans="1:4" ht="21">
       <c r="A423" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B423" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C423" s="4" t="s">
         <v>4</v>
@@ -2707,10 +2731,10 @@
     </row>
     <row r="424" spans="1:4" ht="21">
       <c r="A424" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B424" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C424" s="4" t="s">
         <v>4</v>
@@ -2726,24 +2750,24 @@
     </row>
     <row r="427" spans="1:4" ht="21">
       <c r="A427" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B427" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="B427" s="6" t="s">
-        <v>394</v>
-      </c>
       <c r="C427" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D427" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="428" spans="1:4" ht="21">
       <c r="A428" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B428" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C428" s="4" t="s">
         <v>4</v>
@@ -2751,10 +2775,10 @@
     </row>
     <row r="429" spans="1:4" ht="21">
       <c r="A429" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B429" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C429" s="4" t="s">
         <v>4</v>
@@ -2762,10 +2786,10 @@
     </row>
     <row r="430" spans="1:4" ht="21">
       <c r="A430" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B430" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C430" s="4" t="s">
         <v>4</v>
@@ -2773,10 +2797,10 @@
     </row>
     <row r="431" spans="1:4" ht="21">
       <c r="A431" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B431" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C431" s="4" t="s">
         <v>4</v>
@@ -2784,10 +2808,10 @@
     </row>
     <row r="432" spans="1:4" ht="21">
       <c r="A432" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B432" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C432" s="4" t="s">
         <v>4</v>
@@ -2795,10 +2819,10 @@
     </row>
     <row r="433" spans="1:3" ht="21">
       <c r="A433" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B433" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C433" s="4" t="s">
         <v>4</v>
@@ -2806,10 +2830,10 @@
     </row>
     <row r="434" spans="1:3" ht="21">
       <c r="A434" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B434" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C434" s="4" t="s">
         <v>4</v>
@@ -2817,10 +2841,10 @@
     </row>
     <row r="435" spans="1:3" ht="21">
       <c r="A435" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B435" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C435" s="4" t="s">
         <v>4</v>
@@ -2828,10 +2852,10 @@
     </row>
     <row r="436" spans="1:3" ht="21">
       <c r="A436" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B436" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C436" s="4" t="s">
         <v>4</v>
@@ -2839,10 +2863,10 @@
     </row>
     <row r="437" spans="1:3" ht="21">
       <c r="A437" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B437" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C437" s="4" t="s">
         <v>4</v>
@@ -2850,10 +2874,10 @@
     </row>
     <row r="438" spans="1:3" ht="21">
       <c r="A438" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B438" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C438" s="4" t="s">
         <v>4</v>
@@ -2861,10 +2885,10 @@
     </row>
     <row r="439" spans="1:3" ht="21">
       <c r="A439" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B439" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C439" s="4" t="s">
         <v>4</v>
@@ -2872,10 +2896,10 @@
     </row>
     <row r="440" spans="1:3" ht="21">
       <c r="A440" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B440" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C440" s="4" t="s">
         <v>4</v>
@@ -2883,10 +2907,10 @@
     </row>
     <row r="441" spans="1:3" ht="21">
       <c r="A441" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B441" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C441" s="4" t="s">
         <v>4</v>
@@ -2894,10 +2918,10 @@
     </row>
     <row r="442" spans="1:3" ht="21">
       <c r="A442" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B442" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C442" s="4" t="s">
         <v>4</v>
@@ -2905,10 +2929,10 @@
     </row>
     <row r="443" spans="1:3" ht="21">
       <c r="A443" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B443" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C443" s="4" t="s">
         <v>4</v>
@@ -2916,10 +2940,10 @@
     </row>
     <row r="444" spans="1:3" ht="21">
       <c r="A444" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B444" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C444" s="4" t="s">
         <v>4</v>
@@ -2927,10 +2951,10 @@
     </row>
     <row r="445" spans="1:3" ht="21">
       <c r="A445" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B445" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C445" s="4" t="s">
         <v>4</v>
@@ -2938,10 +2962,10 @@
     </row>
     <row r="446" spans="1:3" ht="21">
       <c r="A446" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B446" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C446" s="4" t="s">
         <v>4</v>
@@ -2949,10 +2973,10 @@
     </row>
     <row r="447" spans="1:3" ht="21">
       <c r="A447" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B447" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C447" s="4" t="s">
         <v>4</v>
@@ -2960,10 +2984,10 @@
     </row>
     <row r="448" spans="1:3" ht="21">
       <c r="A448" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B448" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C448" s="4" t="s">
         <v>4</v>
@@ -2971,10 +2995,10 @@
     </row>
     <row r="449" spans="1:3" ht="21">
       <c r="A449" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B449" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C449" s="4" t="s">
         <v>4</v>
@@ -2982,10 +3006,10 @@
     </row>
     <row r="450" spans="1:3" ht="21">
       <c r="A450" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B450" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C450" s="4" t="s">
         <v>4</v>
@@ -2993,10 +3017,10 @@
     </row>
     <row r="451" spans="1:3" ht="21">
       <c r="A451" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B451" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C451" s="4" t="s">
         <v>4</v>
@@ -3004,10 +3028,10 @@
     </row>
     <row r="452" spans="1:3" ht="21">
       <c r="A452" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B452" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C452" s="4" t="s">
         <v>4</v>
@@ -3015,10 +3039,10 @@
     </row>
     <row r="453" spans="1:3" ht="21">
       <c r="A453" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B453" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C453" s="4" t="s">
         <v>4</v>
@@ -3026,10 +3050,10 @@
     </row>
     <row r="454" spans="1:3" ht="21">
       <c r="A454" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B454" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C454" s="4" t="s">
         <v>4</v>
@@ -3037,10 +3061,10 @@
     </row>
     <row r="455" spans="1:3" ht="21">
       <c r="A455" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B455" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C455" s="4" t="s">
         <v>4</v>
@@ -3048,10 +3072,10 @@
     </row>
     <row r="456" spans="1:3" ht="21">
       <c r="A456" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B456" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C456" s="4" t="s">
         <v>4</v>
@@ -3059,10 +3083,10 @@
     </row>
     <row r="457" spans="1:3" ht="21">
       <c r="A457" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B457" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C457" s="4" t="s">
         <v>4</v>
@@ -3070,10 +3094,10 @@
     </row>
     <row r="458" spans="1:3" ht="21">
       <c r="A458" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B458" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C458" s="4" t="s">
         <v>4</v>
@@ -3081,10 +3105,10 @@
     </row>
     <row r="459" spans="1:3" ht="21">
       <c r="A459" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B459" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C459" s="4" t="s">
         <v>4</v>
@@ -3092,10 +3116,10 @@
     </row>
     <row r="460" spans="1:3" ht="21">
       <c r="A460" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B460" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C460" s="4" t="s">
         <v>4</v>
@@ -3103,10 +3127,10 @@
     </row>
     <row r="461" spans="1:3" ht="21">
       <c r="A461" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B461" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C461" s="4" t="s">
         <v>4</v>
@@ -3114,10 +3138,10 @@
     </row>
     <row r="462" spans="1:3" ht="21">
       <c r="A462" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B462" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C462" s="4" t="s">
         <v>4</v>
@@ -3125,10 +3149,10 @@
     </row>
     <row r="463" spans="1:3" ht="21">
       <c r="A463" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B463" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C463" s="4" t="s">
         <v>4</v>
@@ -3136,10 +3160,10 @@
     </row>
     <row r="464" spans="1:3" ht="21">
       <c r="A464" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B464" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C464" s="4" t="s">
         <v>4</v>
@@ -3147,10 +3171,10 @@
     </row>
     <row r="465" spans="1:3" ht="21">
       <c r="A465" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B465" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C465" s="4" t="s">
         <v>4</v>
@@ -3158,10 +3182,10 @@
     </row>
     <row r="466" spans="1:3" ht="21">
       <c r="A466" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B466" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C466" s="4" t="s">
         <v>4</v>
@@ -3169,10 +3193,10 @@
     </row>
     <row r="467" spans="1:3" ht="21">
       <c r="A467" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B467" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C467" s="4" t="s">
         <v>4</v>
@@ -3180,10 +3204,10 @@
     </row>
     <row r="468" spans="1:3" ht="21">
       <c r="A468" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B468" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C468" s="4" t="s">
         <v>4</v>
@@ -3191,10 +3215,10 @@
     </row>
     <row r="469" spans="1:3" ht="21">
       <c r="A469" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B469" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C469" s="4" t="s">
         <v>4</v>
@@ -3202,10 +3226,10 @@
     </row>
     <row r="470" spans="1:3" ht="21">
       <c r="A470" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B470" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C470" s="4" t="s">
         <v>4</v>
@@ -3213,10 +3237,10 @@
     </row>
     <row r="471" spans="1:3" ht="21">
       <c r="A471" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B471" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C471" s="4" t="s">
         <v>4</v>
@@ -3224,10 +3248,10 @@
     </row>
     <row r="472" spans="1:3" ht="21">
       <c r="A472" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B472" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C472" s="4" t="s">
         <v>4</v>
@@ -3235,10 +3259,10 @@
     </row>
     <row r="473" spans="1:3" ht="21">
       <c r="A473" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B473" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C473" s="4" t="s">
         <v>4</v>
@@ -3246,10 +3270,10 @@
     </row>
     <row r="474" spans="1:3" ht="21">
       <c r="A474" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B474" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C474" s="4" t="s">
         <v>4</v>
@@ -3257,10 +3281,10 @@
     </row>
     <row r="475" spans="1:3" ht="21">
       <c r="A475" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B475" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C475" s="4" t="s">
         <v>4</v>
@@ -3268,10 +3292,10 @@
     </row>
     <row r="476" spans="1:3" ht="21">
       <c r="A476" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B476" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C476" s="4" t="s">
         <v>4</v>
@@ -3279,10 +3303,10 @@
     </row>
     <row r="477" spans="1:3" ht="21">
       <c r="A477" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B477" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C477" s="4" t="s">
         <v>4</v>
@@ -3290,10 +3314,10 @@
     </row>
     <row r="478" spans="1:3" ht="21">
       <c r="A478" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B478" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C478" s="4" t="s">
         <v>4</v>
@@ -3301,10 +3325,10 @@
     </row>
     <row r="479" spans="1:3" ht="21">
       <c r="A479" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B479" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C479" s="4" t="s">
         <v>4</v>
@@ -3312,10 +3336,10 @@
     </row>
     <row r="480" spans="1:3" ht="21">
       <c r="A480" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B480" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C480" s="4" t="s">
         <v>4</v>
@@ -3323,10 +3347,10 @@
     </row>
     <row r="481" spans="1:3" ht="21">
       <c r="A481" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B481" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C481" s="4" t="s">
         <v>4</v>
@@ -3334,10 +3358,10 @@
     </row>
     <row r="482" spans="1:3" ht="21">
       <c r="A482" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B482" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C482" s="4" t="s">
         <v>4</v>
@@ -3345,10 +3369,10 @@
     </row>
     <row r="483" spans="1:3" ht="21">
       <c r="A483" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B483" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C483" s="4" t="s">
         <v>4</v>
@@ -3356,10 +3380,10 @@
     </row>
     <row r="484" spans="1:3" ht="21">
       <c r="A484" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B484" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C484" s="4" t="s">
         <v>4</v>
@@ -3367,10 +3391,10 @@
     </row>
     <row r="485" spans="1:3" ht="21">
       <c r="A485" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B485" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C485" s="4" t="s">
         <v>4</v>
@@ -3378,10 +3402,10 @@
     </row>
     <row r="486" spans="1:3" ht="21">
       <c r="A486" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B486" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C486" s="4" t="s">
         <v>4</v>
@@ -3398,10 +3422,10 @@
     </row>
     <row r="489" spans="1:3" ht="21">
       <c r="A489" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="B489" s="6" t="s">
         <v>453</v>
-      </c>
-      <c r="B489" s="6" t="s">
-        <v>454</v>
       </c>
       <c r="C489" s="4" t="s">
         <v>4</v>
@@ -3409,10 +3433,10 @@
     </row>
     <row r="490" spans="1:3" ht="21">
       <c r="A490" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B490" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C490" s="4" t="s">
         <v>4</v>
@@ -3420,10 +3444,10 @@
     </row>
     <row r="491" spans="1:3" ht="21">
       <c r="A491" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B491" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C491" s="4" t="s">
         <v>4</v>
@@ -3431,10 +3455,10 @@
     </row>
     <row r="492" spans="1:3" ht="21">
       <c r="A492" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B492" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C492" s="4" t="s">
         <v>4</v>
@@ -3442,10 +3466,10 @@
     </row>
     <row r="493" spans="1:3" ht="21">
       <c r="A493" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B493" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C493" s="4" t="s">
         <v>4</v>
@@ -3453,10 +3477,10 @@
     </row>
     <row r="494" spans="1:3" ht="21">
       <c r="A494" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B494" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C494" s="4" t="s">
         <v>4</v>
@@ -3464,10 +3488,10 @@
     </row>
     <row r="495" spans="1:3" ht="21">
       <c r="A495" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B495" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C495" s="4" t="s">
         <v>4</v>
@@ -3475,10 +3499,10 @@
     </row>
     <row r="496" spans="1:3" ht="21">
       <c r="A496" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B496" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C496" s="4" t="s">
         <v>4</v>
@@ -3486,10 +3510,10 @@
     </row>
     <row r="497" spans="1:3" ht="21">
       <c r="A497" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B497" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C497" s="4" t="s">
         <v>4</v>
@@ -3497,10 +3521,10 @@
     </row>
     <row r="498" spans="1:3" ht="21">
       <c r="A498" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B498" s="6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C498" s="4" t="s">
         <v>4</v>
@@ -3515,7 +3539,7 @@
     <hyperlink ref="B10" r:id="rId5" xr:uid="{6E8DD30A-A9F9-4C44-B26C-C9E236F10798}"/>
     <hyperlink ref="B11" r:id="rId6" xr:uid="{0D55765B-95A7-154F-96F3-B7E4C581021F}"/>
     <hyperlink ref="B12" r:id="rId7" xr:uid="{6F687ABA-C04B-AF4F-9F11-A038DCB20FB9}"/>
-    <hyperlink ref="B13" r:id="rId8" xr:uid="{11C9D8CC-9F1E-004E-8EC2-C758DC9C8CAB}"/>
+    <hyperlink ref="B13" r:id="rId8" display="find Largest sum contiguous Subarray [V. IMP]" xr:uid="{11C9D8CC-9F1E-004E-8EC2-C758DC9C8CAB}"/>
     <hyperlink ref="B14" r:id="rId9" xr:uid="{56E4962F-CB3D-9E48-A26E-19A1F5C800C9}"/>
     <hyperlink ref="B15" r:id="rId10" xr:uid="{899DDBD9-9ED6-3A4D-8AFE-8FAA6DA88DBC}"/>
     <hyperlink ref="B16" r:id="rId11" xr:uid="{76D41EAC-A28A-2845-8515-CA3C70D823B7}"/>
@@ -3641,10 +3665,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D7B7384-861B-4D74-A2D7-F52C3D9C0EF0}">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView zoomScale="83" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A19" zoomScale="83" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -3657,24 +3681,24 @@
   <sheetData>
     <row r="1" spans="1:4" ht="21">
       <c r="A1" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>286</v>
-      </c>
       <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="21">
       <c r="A2" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>4</v>
@@ -3682,10 +3706,10 @@
     </row>
     <row r="3" spans="1:4" ht="21">
       <c r="A3" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
@@ -3693,10 +3717,10 @@
     </row>
     <row r="4" spans="1:4" ht="21">
       <c r="A4" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>4</v>
@@ -3704,10 +3728,10 @@
     </row>
     <row r="5" spans="1:4" ht="21">
       <c r="A5" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>4</v>
@@ -3715,10 +3739,10 @@
     </row>
     <row r="6" spans="1:4" ht="21">
       <c r="A6" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>4</v>
@@ -3726,10 +3750,10 @@
     </row>
     <row r="7" spans="1:4" ht="21">
       <c r="A7" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>4</v>
@@ -3737,10 +3761,10 @@
     </row>
     <row r="8" spans="1:4" ht="21">
       <c r="A8" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>4</v>
@@ -3748,10 +3772,10 @@
     </row>
     <row r="9" spans="1:4" ht="21">
       <c r="A9" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>4</v>
@@ -3759,10 +3783,10 @@
     </row>
     <row r="10" spans="1:4" ht="21">
       <c r="A10" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>4</v>
@@ -3770,10 +3794,10 @@
     </row>
     <row r="11" spans="1:4" ht="21">
       <c r="A11" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>4</v>
@@ -3781,10 +3805,10 @@
     </row>
     <row r="12" spans="1:4" ht="21">
       <c r="A12" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>4</v>
@@ -3792,10 +3816,10 @@
     </row>
     <row r="13" spans="1:4" ht="21">
       <c r="A13" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>4</v>
@@ -3803,10 +3827,10 @@
     </row>
     <row r="14" spans="1:4" ht="21">
       <c r="A14" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>4</v>
@@ -3814,10 +3838,10 @@
     </row>
     <row r="15" spans="1:4" ht="21">
       <c r="A15" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>4</v>
@@ -3825,10 +3849,10 @@
     </row>
     <row r="16" spans="1:4" ht="21">
       <c r="A16" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>4</v>
@@ -3836,10 +3860,10 @@
     </row>
     <row r="17" spans="1:3" ht="21">
       <c r="A17" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>4</v>
@@ -3847,10 +3871,10 @@
     </row>
     <row r="18" spans="1:3" ht="21">
       <c r="A18" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>4</v>
@@ -3858,10 +3882,10 @@
     </row>
     <row r="19" spans="1:3" ht="21">
       <c r="A19" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>4</v>
@@ -3869,10 +3893,10 @@
     </row>
     <row r="20" spans="1:3" ht="21">
       <c r="A20" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>4</v>
@@ -3880,10 +3904,10 @@
     </row>
     <row r="21" spans="1:3" ht="21">
       <c r="A21" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>4</v>
@@ -3891,10 +3915,10 @@
     </row>
     <row r="22" spans="1:3" ht="21">
       <c r="A22" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>4</v>
@@ -3902,10 +3926,10 @@
     </row>
     <row r="23" spans="1:3" ht="21">
       <c r="A23" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>4</v>
@@ -3913,10 +3937,10 @@
     </row>
     <row r="24" spans="1:3" ht="21">
       <c r="A24" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>4</v>
@@ -3924,10 +3948,10 @@
     </row>
     <row r="25" spans="1:3" ht="21">
       <c r="A25" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>4</v>
@@ -3935,10 +3959,10 @@
     </row>
     <row r="26" spans="1:3" ht="21">
       <c r="A26" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>4</v>
@@ -3946,10 +3970,10 @@
     </row>
     <row r="27" spans="1:3" ht="21">
       <c r="A27" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>4</v>
@@ -3957,10 +3981,10 @@
     </row>
     <row r="28" spans="1:3" ht="21">
       <c r="A28" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>4</v>
@@ -3968,10 +3992,10 @@
     </row>
     <row r="29" spans="1:3" ht="21">
       <c r="A29" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>4</v>
@@ -3979,10 +4003,10 @@
     </row>
     <row r="30" spans="1:3" ht="21">
       <c r="A30" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>4</v>
@@ -3990,10 +4014,10 @@
     </row>
     <row r="31" spans="1:3" ht="21">
       <c r="A31" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>4</v>
@@ -4001,10 +4025,10 @@
     </row>
     <row r="32" spans="1:3" ht="21">
       <c r="A32" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>4</v>
@@ -4012,10 +4036,10 @@
     </row>
     <row r="33" spans="1:3" ht="21">
       <c r="A33" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>4</v>
@@ -4023,10 +4047,10 @@
     </row>
     <row r="34" spans="1:3" ht="21">
       <c r="A34" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>4</v>
@@ -4034,10 +4058,10 @@
     </row>
     <row r="35" spans="1:3" ht="21">
       <c r="A35" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>4</v>
@@ -4045,10 +4069,10 @@
     </row>
     <row r="36" spans="1:3" ht="21">
       <c r="A36" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>4</v>
@@ -4056,10 +4080,10 @@
     </row>
     <row r="37" spans="1:3" ht="21">
       <c r="A37" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>4</v>
@@ -4067,13 +4091,18 @@
     </row>
     <row r="38" spans="1:3" ht="21">
       <c r="A38" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="B39" t="s">
+        <v>477</v>
       </c>
     </row>
   </sheetData>
@@ -4126,7 +4155,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C18"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -4138,10 +4167,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="21">
       <c r="A1" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>324</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>325</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>4</v>
@@ -4149,10 +4178,10 @@
     </row>
     <row r="2" spans="1:3" ht="21">
       <c r="A2" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>4</v>
@@ -4160,10 +4189,10 @@
     </row>
     <row r="3" spans="1:3" ht="21">
       <c r="A3" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
@@ -4171,10 +4200,10 @@
     </row>
     <row r="4" spans="1:3" ht="21">
       <c r="A4" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>4</v>
@@ -4182,10 +4211,10 @@
     </row>
     <row r="5" spans="1:3" ht="21">
       <c r="A5" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>4</v>
@@ -4193,10 +4222,10 @@
     </row>
     <row r="6" spans="1:3" ht="21">
       <c r="A6" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>4</v>
@@ -4204,10 +4233,10 @@
     </row>
     <row r="7" spans="1:3" ht="21">
       <c r="A7" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>4</v>
@@ -4215,10 +4244,10 @@
     </row>
     <row r="8" spans="1:3" ht="21">
       <c r="A8" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>4</v>
@@ -4226,10 +4255,10 @@
     </row>
     <row r="9" spans="1:3" ht="21">
       <c r="A9" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>4</v>
@@ -4237,10 +4266,10 @@
     </row>
     <row r="10" spans="1:3" ht="21">
       <c r="A10" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>4</v>
@@ -4248,10 +4277,10 @@
     </row>
     <row r="11" spans="1:3" ht="21">
       <c r="A11" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>4</v>
@@ -4259,10 +4288,10 @@
     </row>
     <row r="12" spans="1:3" ht="21">
       <c r="A12" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>4</v>
@@ -4270,10 +4299,10 @@
     </row>
     <row r="13" spans="1:3" ht="21">
       <c r="A13" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>4</v>
@@ -4281,10 +4310,10 @@
     </row>
     <row r="14" spans="1:3" ht="21">
       <c r="A14" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>4</v>
@@ -4292,10 +4321,10 @@
     </row>
     <row r="15" spans="1:3" ht="21">
       <c r="A15" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>4</v>
@@ -4303,10 +4332,10 @@
     </row>
     <row r="16" spans="1:3" ht="21">
       <c r="A16" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>4</v>
@@ -4314,10 +4343,10 @@
     </row>
     <row r="17" spans="1:3" ht="21">
       <c r="A17" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>4</v>
@@ -4325,10 +4354,10 @@
     </row>
     <row r="18" spans="1:3" ht="21">
       <c r="A18" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>4</v>
@@ -4361,10 +4390,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{259A43F6-3F68-4371-AB45-15BD14F8283F}">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView zoomScale="70" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -4374,177 +4403,183 @@
     <col min="3" max="3" width="13.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21">
+    <row r="1" spans="1:4" ht="21">
       <c r="A1" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="21">
+      <c r="A2" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="21">
-      <c r="A2" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="21">
+      <c r="A3" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="21">
-      <c r="A3" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="21">
+      <c r="A4" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="21">
-      <c r="A4" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="21">
+      <c r="A5" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="21">
-      <c r="A5" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="C5" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="21">
+      <c r="A6" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="21">
-      <c r="A6" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="21">
+      <c r="A7" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="21">
-      <c r="A7" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="B7" s="6" t="s">
+      <c r="C7" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="21">
+      <c r="A8" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="21">
-      <c r="A8" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="B8" s="6" t="s">
+      <c r="C8" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="21">
+      <c r="A9" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="21">
-      <c r="A9" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="B9" s="6" t="s">
+      <c r="C9" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="21">
+      <c r="A10" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="21">
-      <c r="A10" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="B10" s="6" t="s">
+      <c r="C10" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="21">
+      <c r="A11" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="21">
-      <c r="A11" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="B11" s="6" t="s">
+      <c r="C11" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="21">
+      <c r="A12" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="21">
-      <c r="A12" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="B12" s="6" t="s">
+      <c r="C12" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="21">
+      <c r="A13" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="21">
-      <c r="A13" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="B13" s="6" t="s">
+      <c r="C13" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="21">
+      <c r="A14" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="21">
-      <c r="A14" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="B14" s="6" t="s">
+      <c r="C14" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="21">
+      <c r="A15" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="21">
-      <c r="A15" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="B15" s="6" t="s">
+      <c r="C15" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="21">
+      <c r="A16" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>358</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="21">
-      <c r="A16" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>359</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>4</v>
@@ -4552,10 +4587,10 @@
     </row>
     <row r="17" spans="1:3" ht="21">
       <c r="A17" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>4</v>
@@ -4563,10 +4598,10 @@
     </row>
     <row r="18" spans="1:3" ht="21">
       <c r="A18" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>4</v>
@@ -4574,10 +4609,10 @@
     </row>
     <row r="19" spans="1:3" ht="21">
       <c r="A19" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>4</v>
@@ -4585,10 +4620,10 @@
     </row>
     <row r="20" spans="1:3" ht="21">
       <c r="A20" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>4</v>
@@ -4596,10 +4631,10 @@
     </row>
     <row r="21" spans="1:3" ht="21">
       <c r="A21" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>4</v>
@@ -4607,10 +4642,10 @@
     </row>
     <row r="22" spans="1:3" ht="21">
       <c r="A22" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>4</v>
@@ -4618,10 +4653,10 @@
     </row>
     <row r="23" spans="1:3" ht="21">
       <c r="A23" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>4</v>
@@ -4629,10 +4664,10 @@
     </row>
     <row r="24" spans="1:3" ht="21">
       <c r="A24" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>4</v>
@@ -4640,10 +4675,10 @@
     </row>
     <row r="25" spans="1:3" ht="21">
       <c r="A25" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>4</v>
@@ -4651,10 +4686,10 @@
     </row>
     <row r="26" spans="1:3" ht="21">
       <c r="A26" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>4</v>
@@ -4662,10 +4697,10 @@
     </row>
     <row r="27" spans="1:3" ht="21">
       <c r="A27" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>4</v>
@@ -4673,10 +4708,10 @@
     </row>
     <row r="28" spans="1:3" ht="21">
       <c r="A28" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>4</v>
@@ -4684,10 +4719,10 @@
     </row>
     <row r="29" spans="1:3" ht="21">
       <c r="A29" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>4</v>
@@ -4695,10 +4730,10 @@
     </row>
     <row r="30" spans="1:3" ht="21">
       <c r="A30" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>4</v>
@@ -4706,10 +4741,10 @@
     </row>
     <row r="31" spans="1:3" ht="21">
       <c r="A31" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>4</v>
@@ -4717,10 +4752,10 @@
     </row>
     <row r="32" spans="1:3" ht="21">
       <c r="A32" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>4</v>
@@ -4728,10 +4763,10 @@
     </row>
     <row r="33" spans="1:3" ht="21">
       <c r="A33" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>4</v>
@@ -4739,10 +4774,10 @@
     </row>
     <row r="34" spans="1:3" ht="21">
       <c r="A34" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>4</v>
@@ -4750,10 +4785,10 @@
     </row>
     <row r="35" spans="1:3" ht="21">
       <c r="A35" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>4</v>
@@ -4761,10 +4796,10 @@
     </row>
     <row r="36" spans="1:3" ht="21">
       <c r="A36" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>4</v>
@@ -4772,10 +4807,10 @@
     </row>
     <row r="37" spans="1:3" ht="21">
       <c r="A37" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>4</v>
@@ -4783,10 +4818,10 @@
     </row>
     <row r="38" spans="1:3" ht="21">
       <c r="A38" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>4</v>
@@ -4794,10 +4829,10 @@
     </row>
     <row r="39" spans="1:3" ht="21">
       <c r="A39" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>4</v>
@@ -4805,10 +4840,10 @@
     </row>
     <row r="40" spans="1:3" ht="21">
       <c r="A40" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>4</v>
@@ -4816,10 +4851,10 @@
     </row>
     <row r="41" spans="1:3" ht="21">
       <c r="A41" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>4</v>
@@ -4827,10 +4862,10 @@
     </row>
     <row r="42" spans="1:3" ht="21">
       <c r="A42" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>4</v>
@@ -4838,10 +4873,10 @@
     </row>
     <row r="43" spans="1:3" ht="21">
       <c r="A43" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>4</v>
@@ -4849,10 +4884,10 @@
     </row>
     <row r="44" spans="1:3" ht="21">
       <c r="A44" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>4</v>
@@ -4927,52 +4962,52 @@
   <sheetData>
     <row r="1" spans="1:4" ht="21">
       <c r="A1" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>394</v>
-      </c>
       <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="21">
       <c r="A2" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21">
       <c r="A3" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21">
       <c r="A4" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>4</v>
@@ -4980,10 +5015,10 @@
     </row>
     <row r="5" spans="1:4" ht="21">
       <c r="A5" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>4</v>
@@ -4991,10 +5026,10 @@
     </row>
     <row r="6" spans="1:4" ht="21">
       <c r="A6" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>4</v>
@@ -5002,38 +5037,38 @@
     </row>
     <row r="7" spans="1:4" ht="21">
       <c r="A7" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="21">
       <c r="A8" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="21">
       <c r="A9" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>4</v>
@@ -5041,10 +5076,10 @@
     </row>
     <row r="10" spans="1:4" ht="21">
       <c r="A10" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>4</v>
@@ -5052,10 +5087,10 @@
     </row>
     <row r="11" spans="1:4" ht="21">
       <c r="A11" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>4</v>
@@ -5063,10 +5098,10 @@
     </row>
     <row r="12" spans="1:4" ht="21">
       <c r="A12" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>4</v>
@@ -5074,10 +5109,10 @@
     </row>
     <row r="13" spans="1:4" ht="21">
       <c r="A13" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>4</v>
@@ -5085,38 +5120,38 @@
     </row>
     <row r="14" spans="1:4" ht="21">
       <c r="A14" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="21">
       <c r="A15" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="21">
       <c r="A16" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>4</v>
@@ -5124,10 +5159,10 @@
     </row>
     <row r="17" spans="1:4" ht="21">
       <c r="A17" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>4</v>
@@ -5135,10 +5170,10 @@
     </row>
     <row r="18" spans="1:4" ht="21">
       <c r="A18" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>4</v>
@@ -5146,10 +5181,10 @@
     </row>
     <row r="19" spans="1:4" ht="21">
       <c r="A19" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>4</v>
@@ -5157,10 +5192,10 @@
     </row>
     <row r="20" spans="1:4" ht="21">
       <c r="A20" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>4</v>
@@ -5168,10 +5203,10 @@
     </row>
     <row r="21" spans="1:4" ht="21">
       <c r="A21" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>4</v>
@@ -5179,10 +5214,10 @@
     </row>
     <row r="22" spans="1:4" ht="21">
       <c r="A22" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>4</v>
@@ -5190,10 +5225,10 @@
     </row>
     <row r="23" spans="1:4" ht="21">
       <c r="A23" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>4</v>
@@ -5201,10 +5236,10 @@
     </row>
     <row r="24" spans="1:4" ht="21">
       <c r="A24" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>4</v>
@@ -5212,10 +5247,10 @@
     </row>
     <row r="25" spans="1:4" ht="21">
       <c r="A25" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>4</v>
@@ -5223,10 +5258,10 @@
     </row>
     <row r="26" spans="1:4" ht="21">
       <c r="A26" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>4</v>
@@ -5234,10 +5269,10 @@
     </row>
     <row r="27" spans="1:4" ht="21">
       <c r="A27" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>4</v>
@@ -5245,10 +5280,10 @@
     </row>
     <row r="28" spans="1:4" ht="21">
       <c r="A28" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>4</v>
@@ -5256,24 +5291,24 @@
     </row>
     <row r="29" spans="1:4" ht="21">
       <c r="A29" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="21">
       <c r="A30" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>4</v>
@@ -5281,10 +5316,10 @@
     </row>
     <row r="31" spans="1:4" ht="21">
       <c r="A31" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>4</v>
@@ -5292,10 +5327,10 @@
     </row>
     <row r="32" spans="1:4" ht="21">
       <c r="A32" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>4</v>
@@ -5303,10 +5338,10 @@
     </row>
     <row r="33" spans="1:3" ht="21">
       <c r="A33" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>4</v>
@@ -5314,10 +5349,10 @@
     </row>
     <row r="34" spans="1:3" ht="21">
       <c r="A34" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>4</v>
@@ -5325,10 +5360,10 @@
     </row>
     <row r="35" spans="1:3" ht="21">
       <c r="A35" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>4</v>
@@ -5336,10 +5371,10 @@
     </row>
     <row r="36" spans="1:3" ht="21">
       <c r="A36" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>4</v>
@@ -5347,10 +5382,10 @@
     </row>
     <row r="37" spans="1:3" ht="21">
       <c r="A37" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>4</v>
@@ -5358,10 +5393,10 @@
     </row>
     <row r="38" spans="1:3" ht="21">
       <c r="A38" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>4</v>
@@ -5369,10 +5404,10 @@
     </row>
     <row r="39" spans="1:3" ht="21">
       <c r="A39" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>4</v>
@@ -5380,10 +5415,10 @@
     </row>
     <row r="40" spans="1:3" ht="21">
       <c r="A40" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>4</v>
@@ -5391,10 +5426,10 @@
     </row>
     <row r="41" spans="1:3" ht="21">
       <c r="A41" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>4</v>
@@ -5402,10 +5437,10 @@
     </row>
     <row r="42" spans="1:3" ht="21">
       <c r="A42" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>4</v>
@@ -5413,10 +5448,10 @@
     </row>
     <row r="43" spans="1:3" ht="21">
       <c r="A43" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>4</v>
@@ -5424,10 +5459,10 @@
     </row>
     <row r="44" spans="1:3" ht="21">
       <c r="A44" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>4</v>
@@ -5435,10 +5470,10 @@
     </row>
     <row r="45" spans="1:3" ht="21">
       <c r="A45" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>4</v>
@@ -5446,10 +5481,10 @@
     </row>
     <row r="46" spans="1:3" ht="21">
       <c r="A46" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>4</v>
@@ -5457,10 +5492,10 @@
     </row>
     <row r="47" spans="1:3" ht="21">
       <c r="A47" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>4</v>
@@ -5468,10 +5503,10 @@
     </row>
     <row r="48" spans="1:3" ht="21">
       <c r="A48" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>4</v>
@@ -5479,10 +5514,10 @@
     </row>
     <row r="49" spans="1:3" ht="21">
       <c r="A49" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>4</v>
@@ -5490,10 +5525,10 @@
     </row>
     <row r="50" spans="1:3" ht="21">
       <c r="A50" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>4</v>
@@ -5501,10 +5536,10 @@
     </row>
     <row r="51" spans="1:3" ht="21">
       <c r="A51" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>4</v>
@@ -5512,10 +5547,10 @@
     </row>
     <row r="52" spans="1:3" ht="21">
       <c r="A52" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>4</v>
@@ -5523,10 +5558,10 @@
     </row>
     <row r="53" spans="1:3" ht="21">
       <c r="A53" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>4</v>
@@ -5534,10 +5569,10 @@
     </row>
     <row r="54" spans="1:3" ht="21">
       <c r="A54" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>4</v>
@@ -5545,10 +5580,10 @@
     </row>
     <row r="55" spans="1:3" ht="21">
       <c r="A55" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>4</v>
@@ -5556,10 +5591,10 @@
     </row>
     <row r="56" spans="1:3" ht="21">
       <c r="A56" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>4</v>
@@ -5567,10 +5602,10 @@
     </row>
     <row r="57" spans="1:3" ht="21">
       <c r="A57" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>4</v>
@@ -5578,10 +5613,10 @@
     </row>
     <row r="58" spans="1:3" ht="21">
       <c r="A58" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>4</v>
@@ -5589,10 +5624,10 @@
     </row>
     <row r="59" spans="1:3" ht="21">
       <c r="A59" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>4</v>
@@ -5600,10 +5635,10 @@
     </row>
     <row r="60" spans="1:3" ht="21">
       <c r="A60" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>4</v>
@@ -5693,10 +5728,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="21">
       <c r="A1" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>134</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>135</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>4</v>
@@ -5704,10 +5739,10 @@
     </row>
     <row r="2" spans="1:3" ht="21">
       <c r="A2" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>4</v>
@@ -5715,10 +5750,10 @@
     </row>
     <row r="3" spans="1:3" ht="21">
       <c r="A3" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
@@ -5726,10 +5761,10 @@
     </row>
     <row r="4" spans="1:3" ht="21">
       <c r="A4" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>4</v>
@@ -5737,10 +5772,10 @@
     </row>
     <row r="5" spans="1:3" ht="21">
       <c r="A5" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>4</v>
@@ -5748,10 +5783,10 @@
     </row>
     <row r="6" spans="1:3" ht="21">
       <c r="A6" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>4</v>
@@ -5759,10 +5794,10 @@
     </row>
     <row r="7" spans="1:3" ht="21">
       <c r="A7" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>4</v>
@@ -5770,10 +5805,10 @@
     </row>
     <row r="8" spans="1:3" ht="21">
       <c r="A8" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>4</v>
@@ -5781,10 +5816,10 @@
     </row>
     <row r="9" spans="1:3" ht="21">
       <c r="A9" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>4</v>
@@ -5792,10 +5827,10 @@
     </row>
     <row r="10" spans="1:3" ht="21">
       <c r="A10" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>4</v>
@@ -5803,10 +5838,10 @@
     </row>
     <row r="11" spans="1:3" ht="21">
       <c r="A11" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>4</v>
@@ -5814,10 +5849,10 @@
     </row>
     <row r="12" spans="1:3" ht="21">
       <c r="A12" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>4</v>
@@ -5825,10 +5860,10 @@
     </row>
     <row r="13" spans="1:3" ht="21">
       <c r="A13" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>4</v>
@@ -5836,10 +5871,10 @@
     </row>
     <row r="14" spans="1:3" ht="21">
       <c r="A14" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>4</v>
@@ -5847,10 +5882,10 @@
     </row>
     <row r="15" spans="1:3" ht="21">
       <c r="A15" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>4</v>
@@ -5858,10 +5893,10 @@
     </row>
     <row r="16" spans="1:3" ht="21">
       <c r="A16" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>4</v>
@@ -5869,10 +5904,10 @@
     </row>
     <row r="17" spans="1:3" ht="21">
       <c r="A17" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>4</v>
@@ -5880,10 +5915,10 @@
     </row>
     <row r="18" spans="1:3" ht="21">
       <c r="A18" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>4</v>
@@ -5891,10 +5926,10 @@
     </row>
     <row r="19" spans="1:3" ht="21">
       <c r="A19" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>4</v>
@@ -5902,10 +5937,10 @@
     </row>
     <row r="20" spans="1:3" ht="21">
       <c r="A20" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>4</v>
@@ -5913,10 +5948,10 @@
     </row>
     <row r="21" spans="1:3" ht="21">
       <c r="A21" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>4</v>
@@ -5924,10 +5959,10 @@
     </row>
     <row r="22" spans="1:3" ht="21">
       <c r="A22" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>4</v>
@@ -5935,10 +5970,10 @@
     </row>
     <row r="23" spans="1:3" ht="21">
       <c r="A23" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>4</v>
@@ -5946,10 +5981,10 @@
     </row>
     <row r="24" spans="1:3" ht="21">
       <c r="A24" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>4</v>
@@ -5957,10 +5992,10 @@
     </row>
     <row r="25" spans="1:3" ht="21">
       <c r="A25" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>4</v>
@@ -5968,10 +6003,10 @@
     </row>
     <row r="26" spans="1:3" ht="21">
       <c r="A26" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>4</v>
@@ -5979,10 +6014,10 @@
     </row>
     <row r="27" spans="1:3" ht="21">
       <c r="A27" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>4</v>
@@ -5990,10 +6025,10 @@
     </row>
     <row r="28" spans="1:3" ht="21">
       <c r="A28" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>4</v>
@@ -6001,10 +6036,10 @@
     </row>
     <row r="29" spans="1:3" ht="21">
       <c r="A29" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>4</v>
@@ -6012,10 +6047,10 @@
     </row>
     <row r="30" spans="1:3" ht="21">
       <c r="A30" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>4</v>
@@ -6023,10 +6058,10 @@
     </row>
     <row r="31" spans="1:3" ht="21">
       <c r="A31" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>4</v>
@@ -6034,10 +6069,10 @@
     </row>
     <row r="32" spans="1:3" ht="21">
       <c r="A32" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>4</v>
@@ -6045,10 +6080,10 @@
     </row>
     <row r="33" spans="1:3" ht="21">
       <c r="A33" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>4</v>
@@ -6056,10 +6091,10 @@
     </row>
     <row r="34" spans="1:3" ht="21">
       <c r="A34" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>4</v>
@@ -6067,10 +6102,10 @@
     </row>
     <row r="35" spans="1:3" ht="21">
       <c r="A35" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>4</v>
@@ -6078,10 +6113,10 @@
     </row>
     <row r="36" spans="1:3" ht="21">
       <c r="A36" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>4</v>
@@ -6132,8 +6167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13B26CD-4436-44E7-BE0F-F10BF9B0E501}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView zoomScale="66" workbookViewId="0">
-      <selection sqref="A1:D35"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -6141,71 +6176,71 @@
     <col min="1" max="1" width="14.09765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="83.09765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.8984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21">
       <c r="A1" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>172</v>
-      </c>
       <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="21">
       <c r="A2" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21">
       <c r="A3" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21">
       <c r="A4" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21">
       <c r="A5" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>4</v>
@@ -6213,32 +6248,38 @@
     </row>
     <row r="6" spans="1:4" ht="21">
       <c r="A6" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21">
       <c r="A7" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="21">
       <c r="A8" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>4</v>
@@ -6246,10 +6287,10 @@
     </row>
     <row r="9" spans="1:4" ht="21">
       <c r="A9" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>4</v>
@@ -6257,10 +6298,10 @@
     </row>
     <row r="10" spans="1:4" ht="21">
       <c r="A10" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>4</v>
@@ -6268,10 +6309,10 @@
     </row>
     <row r="11" spans="1:4" ht="21">
       <c r="A11" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>4</v>
@@ -6279,10 +6320,10 @@
     </row>
     <row r="12" spans="1:4" ht="21">
       <c r="A12" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>4</v>
@@ -6290,10 +6331,10 @@
     </row>
     <row r="13" spans="1:4" ht="21">
       <c r="A13" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>4</v>
@@ -6301,10 +6342,10 @@
     </row>
     <row r="14" spans="1:4" ht="21">
       <c r="A14" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>4</v>
@@ -6312,10 +6353,10 @@
     </row>
     <row r="15" spans="1:4" ht="21">
       <c r="A15" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>4</v>
@@ -6323,10 +6364,10 @@
     </row>
     <row r="16" spans="1:4" ht="21">
       <c r="A16" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>4</v>
@@ -6334,10 +6375,10 @@
     </row>
     <row r="17" spans="1:3" ht="21">
       <c r="A17" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>4</v>
@@ -6345,10 +6386,10 @@
     </row>
     <row r="18" spans="1:3" ht="21">
       <c r="A18" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>4</v>
@@ -6356,10 +6397,10 @@
     </row>
     <row r="19" spans="1:3" ht="21">
       <c r="A19" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>4</v>
@@ -6367,10 +6408,10 @@
     </row>
     <row r="20" spans="1:3" ht="21">
       <c r="A20" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>4</v>
@@ -6378,10 +6419,10 @@
     </row>
     <row r="21" spans="1:3" ht="21">
       <c r="A21" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>4</v>
@@ -6389,10 +6430,10 @@
     </row>
     <row r="22" spans="1:3" ht="21">
       <c r="A22" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>4</v>
@@ -6400,10 +6441,10 @@
     </row>
     <row r="23" spans="1:3" ht="21">
       <c r="A23" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>4</v>
@@ -6411,10 +6452,10 @@
     </row>
     <row r="24" spans="1:3" ht="21">
       <c r="A24" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>4</v>
@@ -6422,10 +6463,10 @@
     </row>
     <row r="25" spans="1:3" ht="21">
       <c r="A25" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>4</v>
@@ -6433,10 +6474,10 @@
     </row>
     <row r="26" spans="1:3" ht="21">
       <c r="A26" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>4</v>
@@ -6444,10 +6485,10 @@
     </row>
     <row r="27" spans="1:3" ht="21">
       <c r="A27" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>4</v>
@@ -6455,10 +6496,10 @@
     </row>
     <row r="28" spans="1:3" ht="21">
       <c r="A28" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>4</v>
@@ -6466,10 +6507,10 @@
     </row>
     <row r="29" spans="1:3" ht="21">
       <c r="A29" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>4</v>
@@ -6477,10 +6518,10 @@
     </row>
     <row r="30" spans="1:3" ht="21">
       <c r="A30" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>4</v>
@@ -6488,10 +6529,10 @@
     </row>
     <row r="31" spans="1:3" ht="21">
       <c r="A31" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>4</v>
@@ -6499,10 +6540,10 @@
     </row>
     <row r="32" spans="1:3" ht="21">
       <c r="A32" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>4</v>
@@ -6510,10 +6551,10 @@
     </row>
     <row r="33" spans="1:3" ht="21">
       <c r="A33" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>4</v>
@@ -6521,10 +6562,10 @@
     </row>
     <row r="34" spans="1:3" ht="21">
       <c r="A34" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>4</v>
@@ -6532,10 +6573,10 @@
     </row>
     <row r="35" spans="1:3" ht="21">
       <c r="A35" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>4</v>
@@ -6600,10 +6641,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="21">
       <c r="A1" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>207</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>208</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>4</v>
@@ -6611,10 +6652,10 @@
     </row>
     <row r="2" spans="1:3" ht="21">
       <c r="A2" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>4</v>
@@ -6622,10 +6663,10 @@
     </row>
     <row r="3" spans="1:3" ht="21">
       <c r="A3" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
@@ -6633,10 +6674,10 @@
     </row>
     <row r="4" spans="1:3" ht="21">
       <c r="A4" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>4</v>
@@ -6644,10 +6685,10 @@
     </row>
     <row r="5" spans="1:3" ht="21">
       <c r="A5" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>4</v>
@@ -6655,10 +6696,10 @@
     </row>
     <row r="6" spans="1:3" ht="21">
       <c r="A6" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>4</v>
@@ -6666,10 +6707,10 @@
     </row>
     <row r="7" spans="1:3" ht="21">
       <c r="A7" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>4</v>
@@ -6677,10 +6718,10 @@
     </row>
     <row r="8" spans="1:3" ht="21">
       <c r="A8" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>4</v>
@@ -6688,10 +6729,10 @@
     </row>
     <row r="9" spans="1:3" ht="21">
       <c r="A9" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>4</v>
@@ -6699,10 +6740,10 @@
     </row>
     <row r="10" spans="1:3" ht="21">
       <c r="A10" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>4</v>
@@ -6710,10 +6751,10 @@
     </row>
     <row r="11" spans="1:3" ht="21">
       <c r="A11" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>4</v>
@@ -6721,10 +6762,10 @@
     </row>
     <row r="12" spans="1:3" ht="21">
       <c r="A12" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>4</v>
@@ -6732,10 +6773,10 @@
     </row>
     <row r="13" spans="1:3" ht="21">
       <c r="A13" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>4</v>
@@ -6743,10 +6784,10 @@
     </row>
     <row r="14" spans="1:3" ht="21">
       <c r="A14" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>4</v>
@@ -6754,10 +6795,10 @@
     </row>
     <row r="15" spans="1:3" ht="21">
       <c r="A15" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>4</v>
@@ -6765,10 +6806,10 @@
     </row>
     <row r="16" spans="1:3" ht="21">
       <c r="A16" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>4</v>
@@ -6776,10 +6817,10 @@
     </row>
     <row r="17" spans="1:3" ht="21">
       <c r="A17" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>4</v>
@@ -6787,10 +6828,10 @@
     </row>
     <row r="18" spans="1:3" ht="21">
       <c r="A18" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>4</v>
@@ -6798,10 +6839,10 @@
     </row>
     <row r="19" spans="1:3" ht="21">
       <c r="A19" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>4</v>
@@ -6809,10 +6850,10 @@
     </row>
     <row r="20" spans="1:3" ht="21">
       <c r="A20" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>4</v>
@@ -6820,10 +6861,10 @@
     </row>
     <row r="21" spans="1:3" ht="21">
       <c r="A21" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>4</v>
@@ -6831,10 +6872,10 @@
     </row>
     <row r="22" spans="1:3" ht="21">
       <c r="A22" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>4</v>
@@ -6887,52 +6928,52 @@
   <sheetData>
     <row r="1" spans="1:4" ht="21">
       <c r="A1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>54</v>
-      </c>
       <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="21">
       <c r="A2" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21">
       <c r="A3" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21">
       <c r="A4" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>4</v>
@@ -6940,24 +6981,24 @@
     </row>
     <row r="5" spans="1:4" ht="21">
       <c r="A5" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21">
       <c r="A6" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>4</v>
@@ -6965,10 +7006,10 @@
     </row>
     <row r="7" spans="1:4" ht="21">
       <c r="A7" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>4</v>
@@ -6976,10 +7017,10 @@
     </row>
     <row r="8" spans="1:4" ht="21">
       <c r="A8" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>4</v>
@@ -6987,10 +7028,10 @@
     </row>
     <row r="9" spans="1:4" ht="21">
       <c r="A9" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>4</v>
@@ -6998,10 +7039,10 @@
     </row>
     <row r="10" spans="1:4" ht="21">
       <c r="A10" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>4</v>
@@ -7009,10 +7050,10 @@
     </row>
     <row r="11" spans="1:4" ht="21">
       <c r="A11" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>4</v>
@@ -7020,10 +7061,10 @@
     </row>
     <row r="12" spans="1:4" ht="21">
       <c r="A12" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>4</v>
@@ -7031,10 +7072,10 @@
     </row>
     <row r="13" spans="1:4" ht="21">
       <c r="A13" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>4</v>
@@ -7042,10 +7083,10 @@
     </row>
     <row r="14" spans="1:4" ht="21">
       <c r="A14" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>4</v>
@@ -7053,10 +7094,10 @@
     </row>
     <row r="15" spans="1:4" ht="21">
       <c r="A15" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>4</v>
@@ -7064,10 +7105,10 @@
     </row>
     <row r="16" spans="1:4" ht="21">
       <c r="A16" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>4</v>
@@ -7075,10 +7116,10 @@
     </row>
     <row r="17" spans="1:3" ht="21">
       <c r="A17" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>4</v>
@@ -7086,10 +7127,10 @@
     </row>
     <row r="18" spans="1:3" ht="21">
       <c r="A18" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>4</v>
@@ -7097,10 +7138,10 @@
     </row>
     <row r="19" spans="1:3" ht="21">
       <c r="A19" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>4</v>
@@ -7108,10 +7149,10 @@
     </row>
     <row r="20" spans="1:3" ht="21">
       <c r="A20" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>4</v>
@@ -7119,10 +7160,10 @@
     </row>
     <row r="21" spans="1:3" ht="21">
       <c r="A21" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>4</v>
@@ -7130,10 +7171,10 @@
     </row>
     <row r="22" spans="1:3" ht="21">
       <c r="A22" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>4</v>
@@ -7141,10 +7182,10 @@
     </row>
     <row r="23" spans="1:3" ht="21">
       <c r="A23" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>4</v>
@@ -7152,10 +7193,10 @@
     </row>
     <row r="24" spans="1:3" ht="21">
       <c r="A24" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>4</v>
@@ -7163,10 +7204,10 @@
     </row>
     <row r="25" spans="1:3" ht="21">
       <c r="A25" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>4</v>
@@ -7174,10 +7215,10 @@
     </row>
     <row r="26" spans="1:3" ht="21">
       <c r="A26" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>4</v>
@@ -7185,10 +7226,10 @@
     </row>
     <row r="27" spans="1:3" ht="21">
       <c r="A27" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>4</v>
@@ -7196,10 +7237,10 @@
     </row>
     <row r="28" spans="1:3" ht="21">
       <c r="A28" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>4</v>
@@ -7207,10 +7248,10 @@
     </row>
     <row r="29" spans="1:3" ht="21">
       <c r="A29" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>4</v>
@@ -7218,10 +7259,10 @@
     </row>
     <row r="30" spans="1:3" ht="21">
       <c r="A30" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>4</v>
@@ -7229,10 +7270,10 @@
     </row>
     <row r="31" spans="1:3" ht="21">
       <c r="A31" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>4</v>
@@ -7240,10 +7281,10 @@
     </row>
     <row r="32" spans="1:3" ht="21">
       <c r="A32" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>4</v>
@@ -7251,10 +7292,10 @@
     </row>
     <row r="33" spans="1:3" ht="21">
       <c r="A33" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>4</v>
@@ -7262,10 +7303,10 @@
     </row>
     <row r="34" spans="1:3" ht="21">
       <c r="A34" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>4</v>
@@ -7273,10 +7314,10 @@
     </row>
     <row r="35" spans="1:3" ht="21">
       <c r="A35" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>4</v>
@@ -7284,10 +7325,10 @@
     </row>
     <row r="36" spans="1:3" ht="21">
       <c r="A36" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>4</v>
@@ -7295,10 +7336,10 @@
     </row>
     <row r="37" spans="1:3" ht="21">
       <c r="A37" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>4</v>
@@ -7306,10 +7347,10 @@
     </row>
     <row r="38" spans="1:3" ht="21">
       <c r="A38" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>4</v>
@@ -7317,10 +7358,10 @@
     </row>
     <row r="39" spans="1:3" ht="21">
       <c r="A39" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>4</v>
@@ -7328,10 +7369,10 @@
     </row>
     <row r="40" spans="1:3" ht="21">
       <c r="A40" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>4</v>
@@ -7339,10 +7380,10 @@
     </row>
     <row r="41" spans="1:3" ht="21">
       <c r="A41" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>4</v>
@@ -7350,10 +7391,10 @@
     </row>
     <row r="42" spans="1:3" ht="21">
       <c r="A42" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>4</v>
@@ -7361,10 +7402,10 @@
     </row>
     <row r="43" spans="1:3" ht="21">
       <c r="A43" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>4</v>
@@ -7372,7 +7413,7 @@
     </row>
     <row r="44" spans="1:3" ht="21">
       <c r="B44" s="6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
   </sheetData>
@@ -7430,7 +7471,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D022A599-70CC-4E40-82DD-92464C9493C6}">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="85" workbookViewId="0">
       <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
@@ -7444,38 +7485,38 @@
   <sheetData>
     <row r="1" spans="1:4" ht="21">
       <c r="A1" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>98</v>
-      </c>
       <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="21">
       <c r="A2" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21">
       <c r="A3" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
@@ -7483,10 +7524,10 @@
     </row>
     <row r="4" spans="1:4" ht="21">
       <c r="A4" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>4</v>
@@ -7494,10 +7535,10 @@
     </row>
     <row r="5" spans="1:4" ht="21">
       <c r="A5" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>4</v>
@@ -7505,10 +7546,10 @@
     </row>
     <row r="6" spans="1:4" ht="21">
       <c r="A6" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>4</v>
@@ -7516,10 +7557,10 @@
     </row>
     <row r="7" spans="1:4" ht="21">
       <c r="A7" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>4</v>
@@ -7527,10 +7568,10 @@
     </row>
     <row r="8" spans="1:4" ht="21">
       <c r="A8" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>4</v>
@@ -7538,10 +7579,10 @@
     </row>
     <row r="9" spans="1:4" ht="21">
       <c r="A9" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>4</v>
@@ -7549,10 +7590,10 @@
     </row>
     <row r="10" spans="1:4" ht="21">
       <c r="A10" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>4</v>
@@ -7560,10 +7601,10 @@
     </row>
     <row r="11" spans="1:4" ht="21">
       <c r="A11" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>4</v>
@@ -7571,10 +7612,10 @@
     </row>
     <row r="12" spans="1:4" ht="21">
       <c r="A12" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>4</v>
@@ -7582,10 +7623,10 @@
     </row>
     <row r="13" spans="1:4" ht="21">
       <c r="A13" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>4</v>
@@ -7593,10 +7634,10 @@
     </row>
     <row r="14" spans="1:4" ht="21">
       <c r="A14" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>4</v>
@@ -7604,10 +7645,10 @@
     </row>
     <row r="15" spans="1:4" ht="21">
       <c r="A15" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>4</v>
@@ -7615,10 +7656,10 @@
     </row>
     <row r="16" spans="1:4" ht="21">
       <c r="A16" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>4</v>
@@ -7626,10 +7667,10 @@
     </row>
     <row r="17" spans="1:3" ht="21">
       <c r="A17" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>4</v>
@@ -7637,10 +7678,10 @@
     </row>
     <row r="18" spans="1:3" ht="21">
       <c r="A18" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>4</v>
@@ -7648,10 +7689,10 @@
     </row>
     <row r="19" spans="1:3" ht="21">
       <c r="A19" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>4</v>
@@ -7659,10 +7700,10 @@
     </row>
     <row r="20" spans="1:3" ht="21">
       <c r="A20" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>4</v>
@@ -7670,10 +7711,10 @@
     </row>
     <row r="21" spans="1:3" ht="21">
       <c r="A21" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>4</v>
@@ -7681,10 +7722,10 @@
     </row>
     <row r="22" spans="1:3" ht="21">
       <c r="A22" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>4</v>
@@ -7692,10 +7733,10 @@
     </row>
     <row r="23" spans="1:3" ht="21">
       <c r="A23" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>4</v>
@@ -7703,10 +7744,10 @@
     </row>
     <row r="24" spans="1:3" ht="21">
       <c r="A24" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>4</v>
@@ -7714,10 +7755,10 @@
     </row>
     <row r="25" spans="1:3" ht="21">
       <c r="A25" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>4</v>
@@ -7725,10 +7766,10 @@
     </row>
     <row r="26" spans="1:3" ht="21">
       <c r="A26" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>4</v>
@@ -7736,10 +7777,10 @@
     </row>
     <row r="27" spans="1:3" ht="21">
       <c r="A27" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>4</v>
@@ -7747,10 +7788,10 @@
     </row>
     <row r="28" spans="1:3" ht="21">
       <c r="A28" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>4</v>
@@ -7758,10 +7799,10 @@
     </row>
     <row r="29" spans="1:3" ht="21">
       <c r="A29" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>4</v>
@@ -7769,10 +7810,10 @@
     </row>
     <row r="30" spans="1:3" ht="21">
       <c r="A30" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>4</v>
@@ -7780,10 +7821,10 @@
     </row>
     <row r="31" spans="1:3" ht="21">
       <c r="A31" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>4</v>
@@ -7791,10 +7832,10 @@
     </row>
     <row r="32" spans="1:3" ht="21">
       <c r="A32" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>4</v>
@@ -7802,10 +7843,10 @@
     </row>
     <row r="33" spans="1:3" ht="21">
       <c r="A33" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>4</v>
@@ -7813,10 +7854,10 @@
     </row>
     <row r="34" spans="1:3" ht="21">
       <c r="A34" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>4</v>
@@ -7824,10 +7865,10 @@
     </row>
     <row r="35" spans="1:3" ht="21">
       <c r="A35" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>4</v>
@@ -7835,10 +7876,10 @@
     </row>
     <row r="36" spans="1:3" ht="21">
       <c r="A36" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>4</v>
@@ -7846,7 +7887,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="B38" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
   </sheetData>
@@ -7896,8 +7937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06DA77AA-B82B-41AE-9220-FE24FDD87E1A}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -7910,38 +7951,38 @@
   <sheetData>
     <row r="1" spans="1:4" ht="21">
       <c r="A1" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>231</v>
-      </c>
       <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="21">
       <c r="A2" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21">
       <c r="A3" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
@@ -7949,10 +7990,10 @@
     </row>
     <row r="4" spans="1:4" ht="21">
       <c r="A4" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>4</v>
@@ -7960,24 +8001,24 @@
     </row>
     <row r="5" spans="1:4" ht="21">
       <c r="A5" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21">
       <c r="A6" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>4</v>
@@ -7985,10 +8026,10 @@
     </row>
     <row r="7" spans="1:4" ht="21">
       <c r="A7" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>4</v>
@@ -7996,10 +8037,10 @@
     </row>
     <row r="8" spans="1:4" ht="21">
       <c r="A8" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>4</v>
@@ -8007,10 +8048,10 @@
     </row>
     <row r="9" spans="1:4" ht="21">
       <c r="A9" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>4</v>
@@ -8018,10 +8059,10 @@
     </row>
     <row r="10" spans="1:4" ht="21">
       <c r="A10" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>4</v>
@@ -8029,10 +8070,10 @@
     </row>
     <row r="11" spans="1:4" ht="21">
       <c r="A11" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>4</v>
@@ -8040,10 +8081,10 @@
     </row>
     <row r="12" spans="1:4" ht="21">
       <c r="A12" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>4</v>
@@ -8051,10 +8092,10 @@
     </row>
     <row r="13" spans="1:4" ht="21">
       <c r="A13" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>4</v>
@@ -8062,10 +8103,10 @@
     </row>
     <row r="14" spans="1:4" ht="21">
       <c r="A14" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>4</v>
@@ -8073,10 +8114,10 @@
     </row>
     <row r="15" spans="1:4" ht="21">
       <c r="A15" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>4</v>
@@ -8084,10 +8125,10 @@
     </row>
     <row r="16" spans="1:4" ht="21">
       <c r="A16" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>4</v>
@@ -8095,10 +8136,10 @@
     </row>
     <row r="17" spans="1:3" ht="21">
       <c r="A17" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>4</v>
@@ -8106,10 +8147,10 @@
     </row>
     <row r="18" spans="1:3" ht="21">
       <c r="A18" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>4</v>
@@ -8117,10 +8158,10 @@
     </row>
     <row r="19" spans="1:3" ht="21">
       <c r="A19" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>4</v>
@@ -8128,10 +8169,10 @@
     </row>
     <row r="20" spans="1:3" ht="21">
       <c r="A20" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>4</v>
@@ -8139,10 +8180,10 @@
     </row>
     <row r="21" spans="1:3" ht="21">
       <c r="A21" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>4</v>
@@ -8150,10 +8191,10 @@
     </row>
     <row r="22" spans="1:3" ht="21">
       <c r="A22" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>4</v>
@@ -8161,10 +8202,10 @@
     </row>
     <row r="23" spans="1:3" ht="21">
       <c r="A23" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>4</v>
@@ -8172,10 +8213,10 @@
     </row>
     <row r="24" spans="1:3" ht="21">
       <c r="A24" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>4</v>
@@ -8183,10 +8224,10 @@
     </row>
     <row r="25" spans="1:3" ht="21">
       <c r="A25" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>4</v>
@@ -8194,10 +8235,10 @@
     </row>
     <row r="26" spans="1:3" ht="21">
       <c r="A26" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>4</v>
@@ -8205,10 +8246,10 @@
     </row>
     <row r="27" spans="1:3" ht="21">
       <c r="A27" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>4</v>
@@ -8216,10 +8257,10 @@
     </row>
     <row r="28" spans="1:3" ht="21">
       <c r="A28" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>4</v>
@@ -8227,10 +8268,10 @@
     </row>
     <row r="29" spans="1:3" ht="21">
       <c r="A29" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>4</v>
@@ -8238,10 +8279,10 @@
     </row>
     <row r="30" spans="1:3" ht="21">
       <c r="A30" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>4</v>
@@ -8249,10 +8290,10 @@
     </row>
     <row r="31" spans="1:3" ht="21">
       <c r="A31" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>4</v>
@@ -8260,10 +8301,10 @@
     </row>
     <row r="32" spans="1:3" ht="21">
       <c r="A32" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>4</v>
@@ -8271,10 +8312,10 @@
     </row>
     <row r="33" spans="1:3" ht="21">
       <c r="A33" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>4</v>
@@ -8282,10 +8323,10 @@
     </row>
     <row r="34" spans="1:3" ht="21">
       <c r="A34" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>4</v>
@@ -8293,10 +8334,10 @@
     </row>
     <row r="35" spans="1:3" ht="21">
       <c r="A35" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>4</v>
@@ -8362,38 +8403,38 @@
   <sheetData>
     <row r="1" spans="1:4" ht="21">
       <c r="A1" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>266</v>
-      </c>
       <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="21">
       <c r="A2" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21">
       <c r="A3" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
@@ -8401,10 +8442,10 @@
     </row>
     <row r="4" spans="1:4" ht="21">
       <c r="A4" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>4</v>
@@ -8412,10 +8453,10 @@
     </row>
     <row r="5" spans="1:4" ht="21">
       <c r="A5" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>4</v>
@@ -8423,10 +8464,10 @@
     </row>
     <row r="6" spans="1:4" ht="21">
       <c r="A6" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>4</v>
@@ -8434,10 +8475,10 @@
     </row>
     <row r="7" spans="1:4" ht="21">
       <c r="A7" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>4</v>
@@ -8445,10 +8486,10 @@
     </row>
     <row r="8" spans="1:4" ht="21">
       <c r="A8" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>4</v>
@@ -8456,10 +8497,10 @@
     </row>
     <row r="9" spans="1:4" ht="21">
       <c r="A9" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>4</v>
@@ -8467,10 +8508,10 @@
     </row>
     <row r="10" spans="1:4" ht="21">
       <c r="A10" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>4</v>
@@ -8478,10 +8519,10 @@
     </row>
     <row r="11" spans="1:4" ht="21">
       <c r="A11" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>4</v>
@@ -8489,10 +8530,10 @@
     </row>
     <row r="12" spans="1:4" ht="21">
       <c r="A12" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>4</v>
@@ -8500,10 +8541,10 @@
     </row>
     <row r="13" spans="1:4" ht="21">
       <c r="A13" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>4</v>
@@ -8511,10 +8552,10 @@
     </row>
     <row r="14" spans="1:4" ht="21">
       <c r="A14" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>4</v>
@@ -8522,10 +8563,10 @@
     </row>
     <row r="15" spans="1:4" ht="21">
       <c r="A15" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>4</v>
@@ -8533,10 +8574,10 @@
     </row>
     <row r="16" spans="1:4" ht="21">
       <c r="A16" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>4</v>
@@ -8544,10 +8585,10 @@
     </row>
     <row r="17" spans="1:3" ht="21">
       <c r="A17" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>4</v>
@@ -8555,10 +8596,10 @@
     </row>
     <row r="18" spans="1:3" ht="21">
       <c r="A18" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>4</v>
@@ -8566,10 +8607,10 @@
     </row>
     <row r="19" spans="1:3" ht="21">
       <c r="A19" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>4</v>
@@ -8603,10 +8644,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD610103-7757-4CAC-83F5-C558A417DD5E}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="91" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView zoomScale="85" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -8618,10 +8659,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="21">
       <c r="A1" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>453</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>454</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>4</v>
@@ -8629,10 +8670,10 @@
     </row>
     <row r="2" spans="1:3" ht="21">
       <c r="A2" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>4</v>
@@ -8640,10 +8681,10 @@
     </row>
     <row r="3" spans="1:3" ht="21">
       <c r="A3" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
@@ -8651,10 +8692,10 @@
     </row>
     <row r="4" spans="1:3" ht="21">
       <c r="A4" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>4</v>
@@ -8662,10 +8703,10 @@
     </row>
     <row r="5" spans="1:3" ht="21">
       <c r="A5" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>4</v>
@@ -8673,10 +8714,10 @@
     </row>
     <row r="6" spans="1:3" ht="21">
       <c r="A6" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>4</v>
@@ -8684,10 +8725,10 @@
     </row>
     <row r="7" spans="1:3" ht="21">
       <c r="A7" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>4</v>
@@ -8695,10 +8736,10 @@
     </row>
     <row r="8" spans="1:3" ht="21">
       <c r="A8" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>4</v>
@@ -8706,10 +8747,10 @@
     </row>
     <row r="9" spans="1:3" ht="21">
       <c r="A9" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>4</v>
@@ -8717,10 +8758,10 @@
     </row>
     <row r="10" spans="1:3" ht="21">
       <c r="A10" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>4</v>
@@ -8728,26 +8769,36 @@
     </row>
     <row r="11" spans="1:3" ht="21">
       <c r="A11" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="18">
       <c r="A31" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="B31" t="s">
         <v>469</v>
       </c>
-      <c r="B31" t="s">
-        <v>470</v>
-      </c>
       <c r="D31" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="B32" t="s">
-        <v>471</v>
+        <v>470</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="10" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="10" t="s">
+        <v>476</v>
       </c>
     </row>
   </sheetData>
@@ -8763,8 +8814,10 @@
     <hyperlink ref="B8" r:id="rId9" xr:uid="{3B0D7D35-AF45-4618-9751-461069A394E2}"/>
     <hyperlink ref="B9" r:id="rId10" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{6190A2FF-E2CE-4A63-98CF-93FE865E2B1C}"/>
     <hyperlink ref="B11" r:id="rId11" xr:uid="{8A63323A-6B13-4B09-9E5E-B8418FB508E8}"/>
+    <hyperlink ref="B33" r:id="rId12" location=":~:text=Given%20an%20array%20of%20integers,of%20digits%20should%20be%20same." xr:uid="{784D3ACC-35C1-4882-968D-6B8930B9B2A2}"/>
+    <hyperlink ref="B34" r:id="rId13" xr:uid="{FF3AEC00-18F6-4727-A3FF-7CB3CEF9E8AA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
--- a/DSA questions (1).xlsx
+++ b/DSA questions (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\E\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE78FDA8-D856-4CE5-ABB2-23EF07D9DDC0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{725FF9FC-C8CA-43DE-AF0A-0467E6E840AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5220" yWindow="2100" windowWidth="15792" windowHeight="10068" firstSheet="7" activeTab="11" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Array" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1616" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1645" uniqueCount="485">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -81,9 +81,6 @@
     <t>Minimise the maximum difference between heights [V.IMP]</t>
   </si>
   <si>
-    <t>Minimum no. of Jumps to reach end of an array</t>
-  </si>
-  <si>
     <t>find duplicate in an array of N+1 Integers</t>
   </si>
   <si>
@@ -1101,9 +1098,6 @@
     <t xml:space="preserve">word Ladder </t>
   </si>
   <si>
-    <t>Dijkstra algo</t>
-  </si>
-  <si>
     <t xml:space="preserve">Implement Topological Sort </t>
   </si>
   <si>
@@ -1474,6 +1468,30 @@
   </si>
   <si>
     <t>find Largest sum contiguous Subarray [V. IMP] (Kadane's Algorithm)</t>
+  </si>
+  <si>
+    <t>Dijkstra algo- single source shortest path</t>
+  </si>
+  <si>
+    <t>Vertical order traversal</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PQKkr036wRc&amp;t=4s</t>
+  </si>
+  <si>
+    <t>Minimum no. of Jumps to reach end of an array  (dp for both O(n2) and O(n))</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5Du2iSRrbEw&amp;ab_channel=FriendlyDeveloper</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=XpyAp5abmBI&amp;ab_channel=CodingNinjas</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=EJwCUCjb9HM&amp;ab_channel=CodingNinjas</t>
+  </si>
+  <si>
+    <t>Knight's Tour</t>
   </si>
 </sst>
 </file>
@@ -1572,7 +1590,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1597,6 +1615,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1914,8 +1935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:E498"/>
   <sheetViews>
-    <sheetView zoomScale="74" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1925,17 +1946,17 @@
     <col min="3" max="3" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24.6">
+    <row r="1" spans="1:5" ht="24.6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="B2" s="10" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="21">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="21">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1946,12 +1967,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="21">
+    <row r="6" spans="1:5" ht="21">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
@@ -1962,10 +1983,10 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="21">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="21">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -1976,10 +1997,10 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="21">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="21">
       <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
@@ -1990,10 +2011,10 @@
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="21">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="21">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
@@ -2004,7 +2025,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="21">
+    <row r="10" spans="1:5" ht="21">
       <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
@@ -2015,10 +2036,10 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="21">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="21">
       <c r="A11" s="5" t="s">
         <v>5</v>
       </c>
@@ -2029,10 +2050,10 @@
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="21">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="21">
       <c r="A12" s="5" t="s">
         <v>5</v>
       </c>
@@ -2043,21 +2064,24 @@
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="21">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="21">
       <c r="A13" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="21">
+      <c r="D13" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="21">
       <c r="A14" s="5" t="s">
         <v>5</v>
       </c>
@@ -2068,26 +2092,32 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="21">
+    <row r="15" spans="1:5" ht="21">
       <c r="A15" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>14</v>
+        <v>480</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="21">
+      <c r="E15" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="21">
       <c r="A16" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="21">
@@ -2095,7 +2125,7 @@
         <v>5</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>4</v>
@@ -2106,7 +2136,7 @@
         <v>5</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>4</v>
@@ -2117,7 +2147,7 @@
         <v>5</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>4</v>
@@ -2128,7 +2158,7 @@
         <v>5</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>4</v>
@@ -2139,7 +2169,7 @@
         <v>5</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>4</v>
@@ -2150,7 +2180,7 @@
         <v>5</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>4</v>
@@ -2161,7 +2191,7 @@
         <v>5</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>4</v>
@@ -2172,7 +2202,7 @@
         <v>5</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>4</v>
@@ -2183,7 +2213,7 @@
         <v>5</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>4</v>
@@ -2194,7 +2224,7 @@
         <v>5</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>4</v>
@@ -2205,7 +2235,7 @@
         <v>5</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>4</v>
@@ -2216,7 +2246,7 @@
         <v>5</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>4</v>
@@ -2227,7 +2257,7 @@
         <v>5</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>4</v>
@@ -2238,7 +2268,7 @@
         <v>5</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>4</v>
@@ -2249,7 +2279,7 @@
         <v>5</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>4</v>
@@ -2260,7 +2290,7 @@
         <v>5</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>4</v>
@@ -2271,7 +2301,7 @@
         <v>5</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>4</v>
@@ -2282,7 +2312,7 @@
         <v>5</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>4</v>
@@ -2293,7 +2323,7 @@
         <v>5</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>4</v>
@@ -2304,7 +2334,7 @@
         <v>5</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>4</v>
@@ -2315,7 +2345,7 @@
         <v>5</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>4</v>
@@ -2326,7 +2356,7 @@
         <v>5</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>4</v>
@@ -2337,7 +2367,7 @@
         <v>5</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>4</v>
@@ -2348,7 +2378,7 @@
         <v>5</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>4</v>
@@ -2359,7 +2389,7 @@
         <v>5</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>4</v>
@@ -2370,19 +2400,19 @@
         <v>5</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D42" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="21">
       <c r="A43" s="5"/>
       <c r="B43" s="6" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C43" s="4"/>
     </row>
@@ -2473,38 +2503,38 @@
     </row>
     <row r="61" spans="1:4" ht="21">
       <c r="A61" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B61" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B61" s="6" t="s">
-        <v>42</v>
-      </c>
       <c r="C61" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D61" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="21">
       <c r="A62" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D62" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="21">
       <c r="A63" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>4</v>
@@ -2512,10 +2542,10 @@
     </row>
     <row r="64" spans="1:4" ht="21">
       <c r="A64" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>4</v>
@@ -2523,10 +2553,10 @@
     </row>
     <row r="65" spans="1:5" ht="21">
       <c r="A65" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>4</v>
@@ -2534,10 +2564,10 @@
     </row>
     <row r="66" spans="1:5" ht="21">
       <c r="A66" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>4</v>
@@ -2545,10 +2575,10 @@
     </row>
     <row r="67" spans="1:5" ht="21">
       <c r="A67" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>4</v>
@@ -2556,10 +2586,10 @@
     </row>
     <row r="68" spans="1:5" ht="21">
       <c r="A68" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>4</v>
@@ -2567,10 +2597,10 @@
     </row>
     <row r="69" spans="1:5" ht="21">
       <c r="A69" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>4</v>
@@ -2578,10 +2608,10 @@
     </row>
     <row r="70" spans="1:5" ht="21">
       <c r="A70" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>4</v>
@@ -2589,13 +2619,13 @@
     </row>
     <row r="71" spans="1:5" ht="21">
       <c r="A71" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E71" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="21">
@@ -2676,10 +2706,10 @@
     </row>
     <row r="419" spans="1:4" ht="21">
       <c r="A419" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B419" s="6" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C419" s="4" t="s">
         <v>4</v>
@@ -2687,10 +2717,10 @@
     </row>
     <row r="420" spans="1:4" ht="21">
       <c r="A420" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="B420" s="6" t="s">
         <v>386</v>
-      </c>
-      <c r="B420" s="6" t="s">
-        <v>388</v>
       </c>
       <c r="C420" s="4" t="s">
         <v>4</v>
@@ -2698,10 +2728,10 @@
     </row>
     <row r="421" spans="1:4" ht="21">
       <c r="A421" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B421" s="6" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C421" s="4" t="s">
         <v>4</v>
@@ -2709,10 +2739,10 @@
     </row>
     <row r="422" spans="1:4" ht="21">
       <c r="A422" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B422" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C422" s="4" t="s">
         <v>4</v>
@@ -2720,10 +2750,10 @@
     </row>
     <row r="423" spans="1:4" ht="21">
       <c r="A423" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B423" s="6" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C423" s="4" t="s">
         <v>4</v>
@@ -2731,10 +2761,10 @@
     </row>
     <row r="424" spans="1:4" ht="21">
       <c r="A424" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B424" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C424" s="4" t="s">
         <v>4</v>
@@ -2750,24 +2780,24 @@
     </row>
     <row r="427" spans="1:4" ht="21">
       <c r="A427" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B427" s="6" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C427" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D427" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="428" spans="1:4" ht="21">
       <c r="A428" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="B428" s="6" t="s">
         <v>392</v>
-      </c>
-      <c r="B428" s="6" t="s">
-        <v>394</v>
       </c>
       <c r="C428" s="4" t="s">
         <v>4</v>
@@ -2775,10 +2805,10 @@
     </row>
     <row r="429" spans="1:4" ht="21">
       <c r="A429" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B429" s="6" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C429" s="4" t="s">
         <v>4</v>
@@ -2786,10 +2816,10 @@
     </row>
     <row r="430" spans="1:4" ht="21">
       <c r="A430" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B430" s="6" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C430" s="4" t="s">
         <v>4</v>
@@ -2797,10 +2827,10 @@
     </row>
     <row r="431" spans="1:4" ht="21">
       <c r="A431" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B431" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C431" s="4" t="s">
         <v>4</v>
@@ -2808,10 +2838,10 @@
     </row>
     <row r="432" spans="1:4" ht="21">
       <c r="A432" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B432" s="6" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C432" s="4" t="s">
         <v>4</v>
@@ -2819,10 +2849,10 @@
     </row>
     <row r="433" spans="1:3" ht="21">
       <c r="A433" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B433" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C433" s="4" t="s">
         <v>4</v>
@@ -2830,10 +2860,10 @@
     </row>
     <row r="434" spans="1:3" ht="21">
       <c r="A434" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B434" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C434" s="4" t="s">
         <v>4</v>
@@ -2841,10 +2871,10 @@
     </row>
     <row r="435" spans="1:3" ht="21">
       <c r="A435" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B435" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C435" s="4" t="s">
         <v>4</v>
@@ -2852,10 +2882,10 @@
     </row>
     <row r="436" spans="1:3" ht="21">
       <c r="A436" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B436" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C436" s="4" t="s">
         <v>4</v>
@@ -2863,10 +2893,10 @@
     </row>
     <row r="437" spans="1:3" ht="21">
       <c r="A437" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B437" s="6" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C437" s="4" t="s">
         <v>4</v>
@@ -2874,10 +2904,10 @@
     </row>
     <row r="438" spans="1:3" ht="21">
       <c r="A438" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B438" s="6" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C438" s="4" t="s">
         <v>4</v>
@@ -2885,10 +2915,10 @@
     </row>
     <row r="439" spans="1:3" ht="21">
       <c r="A439" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B439" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C439" s="4" t="s">
         <v>4</v>
@@ -2896,10 +2926,10 @@
     </row>
     <row r="440" spans="1:3" ht="21">
       <c r="A440" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B440" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C440" s="4" t="s">
         <v>4</v>
@@ -2907,10 +2937,10 @@
     </row>
     <row r="441" spans="1:3" ht="21">
       <c r="A441" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B441" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C441" s="4" t="s">
         <v>4</v>
@@ -2918,10 +2948,10 @@
     </row>
     <row r="442" spans="1:3" ht="21">
       <c r="A442" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B442" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C442" s="4" t="s">
         <v>4</v>
@@ -2929,10 +2959,10 @@
     </row>
     <row r="443" spans="1:3" ht="21">
       <c r="A443" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B443" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C443" s="4" t="s">
         <v>4</v>
@@ -2940,10 +2970,10 @@
     </row>
     <row r="444" spans="1:3" ht="21">
       <c r="A444" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B444" s="6" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C444" s="4" t="s">
         <v>4</v>
@@ -2951,10 +2981,10 @@
     </row>
     <row r="445" spans="1:3" ht="21">
       <c r="A445" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B445" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C445" s="4" t="s">
         <v>4</v>
@@ -2962,10 +2992,10 @@
     </row>
     <row r="446" spans="1:3" ht="21">
       <c r="A446" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B446" s="6" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C446" s="4" t="s">
         <v>4</v>
@@ -2973,10 +3003,10 @@
     </row>
     <row r="447" spans="1:3" ht="21">
       <c r="A447" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B447" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C447" s="4" t="s">
         <v>4</v>
@@ -2984,10 +3014,10 @@
     </row>
     <row r="448" spans="1:3" ht="21">
       <c r="A448" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B448" s="6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C448" s="4" t="s">
         <v>4</v>
@@ -2995,10 +3025,10 @@
     </row>
     <row r="449" spans="1:3" ht="21">
       <c r="A449" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B449" s="6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C449" s="4" t="s">
         <v>4</v>
@@ -3006,10 +3036,10 @@
     </row>
     <row r="450" spans="1:3" ht="21">
       <c r="A450" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B450" s="6" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C450" s="4" t="s">
         <v>4</v>
@@ -3017,10 +3047,10 @@
     </row>
     <row r="451" spans="1:3" ht="21">
       <c r="A451" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B451" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C451" s="4" t="s">
         <v>4</v>
@@ -3028,10 +3058,10 @@
     </row>
     <row r="452" spans="1:3" ht="21">
       <c r="A452" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B452" s="6" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C452" s="4" t="s">
         <v>4</v>
@@ -3039,10 +3069,10 @@
     </row>
     <row r="453" spans="1:3" ht="21">
       <c r="A453" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B453" s="6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C453" s="4" t="s">
         <v>4</v>
@@ -3050,10 +3080,10 @@
     </row>
     <row r="454" spans="1:3" ht="21">
       <c r="A454" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B454" s="6" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C454" s="4" t="s">
         <v>4</v>
@@ -3061,10 +3091,10 @@
     </row>
     <row r="455" spans="1:3" ht="21">
       <c r="A455" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B455" s="6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C455" s="4" t="s">
         <v>4</v>
@@ -3072,10 +3102,10 @@
     </row>
     <row r="456" spans="1:3" ht="21">
       <c r="A456" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B456" s="6" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C456" s="4" t="s">
         <v>4</v>
@@ -3083,10 +3113,10 @@
     </row>
     <row r="457" spans="1:3" ht="21">
       <c r="A457" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B457" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C457" s="4" t="s">
         <v>4</v>
@@ -3094,10 +3124,10 @@
     </row>
     <row r="458" spans="1:3" ht="21">
       <c r="A458" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B458" s="6" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C458" s="4" t="s">
         <v>4</v>
@@ -3105,10 +3135,10 @@
     </row>
     <row r="459" spans="1:3" ht="21">
       <c r="A459" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B459" s="6" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C459" s="4" t="s">
         <v>4</v>
@@ -3116,10 +3146,10 @@
     </row>
     <row r="460" spans="1:3" ht="21">
       <c r="A460" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B460" s="6" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C460" s="4" t="s">
         <v>4</v>
@@ -3127,10 +3157,10 @@
     </row>
     <row r="461" spans="1:3" ht="21">
       <c r="A461" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B461" s="6" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C461" s="4" t="s">
         <v>4</v>
@@ -3138,10 +3168,10 @@
     </row>
     <row r="462" spans="1:3" ht="21">
       <c r="A462" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B462" s="6" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C462" s="4" t="s">
         <v>4</v>
@@ -3149,10 +3179,10 @@
     </row>
     <row r="463" spans="1:3" ht="21">
       <c r="A463" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B463" s="6" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C463" s="4" t="s">
         <v>4</v>
@@ -3160,10 +3190,10 @@
     </row>
     <row r="464" spans="1:3" ht="21">
       <c r="A464" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B464" s="6" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C464" s="4" t="s">
         <v>4</v>
@@ -3171,10 +3201,10 @@
     </row>
     <row r="465" spans="1:3" ht="21">
       <c r="A465" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B465" s="6" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C465" s="4" t="s">
         <v>4</v>
@@ -3182,10 +3212,10 @@
     </row>
     <row r="466" spans="1:3" ht="21">
       <c r="A466" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B466" s="6" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C466" s="4" t="s">
         <v>4</v>
@@ -3193,10 +3223,10 @@
     </row>
     <row r="467" spans="1:3" ht="21">
       <c r="A467" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B467" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C467" s="4" t="s">
         <v>4</v>
@@ -3204,10 +3234,10 @@
     </row>
     <row r="468" spans="1:3" ht="21">
       <c r="A468" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B468" s="6" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C468" s="4" t="s">
         <v>4</v>
@@ -3215,10 +3245,10 @@
     </row>
     <row r="469" spans="1:3" ht="21">
       <c r="A469" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B469" s="6" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C469" s="4" t="s">
         <v>4</v>
@@ -3226,10 +3256,10 @@
     </row>
     <row r="470" spans="1:3" ht="21">
       <c r="A470" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B470" s="6" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C470" s="4" t="s">
         <v>4</v>
@@ -3237,10 +3267,10 @@
     </row>
     <row r="471" spans="1:3" ht="21">
       <c r="A471" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B471" s="6" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C471" s="4" t="s">
         <v>4</v>
@@ -3248,10 +3278,10 @@
     </row>
     <row r="472" spans="1:3" ht="21">
       <c r="A472" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B472" s="6" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C472" s="4" t="s">
         <v>4</v>
@@ -3259,10 +3289,10 @@
     </row>
     <row r="473" spans="1:3" ht="21">
       <c r="A473" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B473" s="6" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C473" s="4" t="s">
         <v>4</v>
@@ -3270,10 +3300,10 @@
     </row>
     <row r="474" spans="1:3" ht="21">
       <c r="A474" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B474" s="6" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C474" s="4" t="s">
         <v>4</v>
@@ -3281,10 +3311,10 @@
     </row>
     <row r="475" spans="1:3" ht="21">
       <c r="A475" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B475" s="6" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C475" s="4" t="s">
         <v>4</v>
@@ -3292,10 +3322,10 @@
     </row>
     <row r="476" spans="1:3" ht="21">
       <c r="A476" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B476" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C476" s="4" t="s">
         <v>4</v>
@@ -3303,10 +3333,10 @@
     </row>
     <row r="477" spans="1:3" ht="21">
       <c r="A477" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B477" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C477" s="4" t="s">
         <v>4</v>
@@ -3314,10 +3344,10 @@
     </row>
     <row r="478" spans="1:3" ht="21">
       <c r="A478" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B478" s="6" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C478" s="4" t="s">
         <v>4</v>
@@ -3325,10 +3355,10 @@
     </row>
     <row r="479" spans="1:3" ht="21">
       <c r="A479" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B479" s="6" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C479" s="4" t="s">
         <v>4</v>
@@ -3336,10 +3366,10 @@
     </row>
     <row r="480" spans="1:3" ht="21">
       <c r="A480" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B480" s="6" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C480" s="4" t="s">
         <v>4</v>
@@ -3347,10 +3377,10 @@
     </row>
     <row r="481" spans="1:3" ht="21">
       <c r="A481" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B481" s="6" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C481" s="4" t="s">
         <v>4</v>
@@ -3358,10 +3388,10 @@
     </row>
     <row r="482" spans="1:3" ht="21">
       <c r="A482" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B482" s="6" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C482" s="4" t="s">
         <v>4</v>
@@ -3369,10 +3399,10 @@
     </row>
     <row r="483" spans="1:3" ht="21">
       <c r="A483" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B483" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C483" s="4" t="s">
         <v>4</v>
@@ -3380,10 +3410,10 @@
     </row>
     <row r="484" spans="1:3" ht="21">
       <c r="A484" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B484" s="6" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C484" s="4" t="s">
         <v>4</v>
@@ -3391,10 +3421,10 @@
     </row>
     <row r="485" spans="1:3" ht="21">
       <c r="A485" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B485" s="6" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C485" s="4" t="s">
         <v>4</v>
@@ -3402,10 +3432,10 @@
     </row>
     <row r="486" spans="1:3" ht="21">
       <c r="A486" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B486" s="6" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C486" s="4" t="s">
         <v>4</v>
@@ -3422,10 +3452,10 @@
     </row>
     <row r="489" spans="1:3" ht="21">
       <c r="A489" s="5" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B489" s="6" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C489" s="4" t="s">
         <v>4</v>
@@ -3433,10 +3463,10 @@
     </row>
     <row r="490" spans="1:3" ht="21">
       <c r="A490" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="B490" s="6" t="s">
         <v>452</v>
-      </c>
-      <c r="B490" s="6" t="s">
-        <v>454</v>
       </c>
       <c r="C490" s="4" t="s">
         <v>4</v>
@@ -3444,10 +3474,10 @@
     </row>
     <row r="491" spans="1:3" ht="21">
       <c r="A491" s="5" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B491" s="6" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C491" s="4" t="s">
         <v>4</v>
@@ -3455,10 +3485,10 @@
     </row>
     <row r="492" spans="1:3" ht="21">
       <c r="A492" s="5" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B492" s="6" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C492" s="4" t="s">
         <v>4</v>
@@ -3466,10 +3496,10 @@
     </row>
     <row r="493" spans="1:3" ht="21">
       <c r="A493" s="5" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B493" s="6" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C493" s="4" t="s">
         <v>4</v>
@@ -3477,10 +3507,10 @@
     </row>
     <row r="494" spans="1:3" ht="21">
       <c r="A494" s="5" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B494" s="6" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C494" s="4" t="s">
         <v>4</v>
@@ -3488,10 +3518,10 @@
     </row>
     <row r="495" spans="1:3" ht="21">
       <c r="A495" s="5" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B495" s="6" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C495" s="4" t="s">
         <v>4</v>
@@ -3499,10 +3529,10 @@
     </row>
     <row r="496" spans="1:3" ht="21">
       <c r="A496" s="5" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B496" s="6" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C496" s="4" t="s">
         <v>4</v>
@@ -3510,10 +3540,10 @@
     </row>
     <row r="497" spans="1:3" ht="21">
       <c r="A497" s="5" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B497" s="6" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C497" s="4" t="s">
         <v>4</v>
@@ -3521,10 +3551,10 @@
     </row>
     <row r="498" spans="1:3" ht="21">
       <c r="A498" s="5" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B498" s="6" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C498" s="4" t="s">
         <v>4</v>
@@ -3541,7 +3571,7 @@
     <hyperlink ref="B12" r:id="rId7" xr:uid="{6F687ABA-C04B-AF4F-9F11-A038DCB20FB9}"/>
     <hyperlink ref="B13" r:id="rId8" display="find Largest sum contiguous Subarray [V. IMP]" xr:uid="{11C9D8CC-9F1E-004E-8EC2-C758DC9C8CAB}"/>
     <hyperlink ref="B14" r:id="rId9" xr:uid="{56E4962F-CB3D-9E48-A26E-19A1F5C800C9}"/>
-    <hyperlink ref="B15" r:id="rId10" xr:uid="{899DDBD9-9ED6-3A4D-8AFE-8FAA6DA88DBC}"/>
+    <hyperlink ref="B15" r:id="rId10" display="Minimum no. of Jumps to reach end of an array" xr:uid="{899DDBD9-9ED6-3A4D-8AFE-8FAA6DA88DBC}"/>
     <hyperlink ref="B16" r:id="rId11" xr:uid="{76D41EAC-A28A-2845-8515-CA3C70D823B7}"/>
     <hyperlink ref="B17" r:id="rId12" xr:uid="{828948BE-DD97-DE4A-BAD6-B415E29198F0}"/>
     <hyperlink ref="B18" r:id="rId13" xr:uid="{E98C86AA-12E7-124C-B7D0-BCDFB246040B}"/>
@@ -3667,8 +3697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D7B7384-861B-4D74-A2D7-F52C3D9C0EF0}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="83" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView zoomScale="83" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -3676,29 +3706,29 @@
     <col min="1" max="1" width="18.69921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="107.09765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.796875" customWidth="1"/>
+    <col min="4" max="4" width="12.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21">
       <c r="A1" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>285</v>
-      </c>
       <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="21">
       <c r="A2" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>4</v>
@@ -3706,10 +3736,10 @@
     </row>
     <row r="3" spans="1:4" ht="21">
       <c r="A3" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
@@ -3717,10 +3747,10 @@
     </row>
     <row r="4" spans="1:4" ht="21">
       <c r="A4" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>4</v>
@@ -3728,10 +3758,10 @@
     </row>
     <row r="5" spans="1:4" ht="21">
       <c r="A5" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>4</v>
@@ -3739,10 +3769,10 @@
     </row>
     <row r="6" spans="1:4" ht="21">
       <c r="A6" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>4</v>
@@ -3750,10 +3780,10 @@
     </row>
     <row r="7" spans="1:4" ht="21">
       <c r="A7" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>4</v>
@@ -3761,10 +3791,10 @@
     </row>
     <row r="8" spans="1:4" ht="21">
       <c r="A8" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>4</v>
@@ -3772,10 +3802,10 @@
     </row>
     <row r="9" spans="1:4" ht="21">
       <c r="A9" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>4</v>
@@ -3783,10 +3813,10 @@
     </row>
     <row r="10" spans="1:4" ht="21">
       <c r="A10" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>4</v>
@@ -3794,10 +3824,10 @@
     </row>
     <row r="11" spans="1:4" ht="21">
       <c r="A11" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>4</v>
@@ -3805,10 +3835,10 @@
     </row>
     <row r="12" spans="1:4" ht="21">
       <c r="A12" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>4</v>
@@ -3816,10 +3846,10 @@
     </row>
     <row r="13" spans="1:4" ht="21">
       <c r="A13" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>4</v>
@@ -3827,10 +3857,10 @@
     </row>
     <row r="14" spans="1:4" ht="21">
       <c r="A14" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>4</v>
@@ -3838,10 +3868,10 @@
     </row>
     <row r="15" spans="1:4" ht="21">
       <c r="A15" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>4</v>
@@ -3849,10 +3879,10 @@
     </row>
     <row r="16" spans="1:4" ht="21">
       <c r="A16" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>4</v>
@@ -3860,10 +3890,10 @@
     </row>
     <row r="17" spans="1:3" ht="21">
       <c r="A17" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>4</v>
@@ -3871,10 +3901,10 @@
     </row>
     <row r="18" spans="1:3" ht="21">
       <c r="A18" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>4</v>
@@ -3882,10 +3912,10 @@
     </row>
     <row r="19" spans="1:3" ht="21">
       <c r="A19" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>4</v>
@@ -3893,10 +3923,10 @@
     </row>
     <row r="20" spans="1:3" ht="21">
       <c r="A20" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>4</v>
@@ -3904,10 +3934,10 @@
     </row>
     <row r="21" spans="1:3" ht="21">
       <c r="A21" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>4</v>
@@ -3915,10 +3945,10 @@
     </row>
     <row r="22" spans="1:3" ht="21">
       <c r="A22" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>4</v>
@@ -3926,10 +3956,10 @@
     </row>
     <row r="23" spans="1:3" ht="21">
       <c r="A23" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>4</v>
@@ -3937,10 +3967,10 @@
     </row>
     <row r="24" spans="1:3" ht="21">
       <c r="A24" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>4</v>
@@ -3948,10 +3978,10 @@
     </row>
     <row r="25" spans="1:3" ht="21">
       <c r="A25" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>4</v>
@@ -3959,10 +3989,10 @@
     </row>
     <row r="26" spans="1:3" ht="21">
       <c r="A26" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>4</v>
@@ -3970,10 +4000,10 @@
     </row>
     <row r="27" spans="1:3" ht="21">
       <c r="A27" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>4</v>
@@ -3981,10 +4011,10 @@
     </row>
     <row r="28" spans="1:3" ht="21">
       <c r="A28" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>4</v>
@@ -3992,10 +4022,10 @@
     </row>
     <row r="29" spans="1:3" ht="21">
       <c r="A29" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>4</v>
@@ -4003,10 +4033,10 @@
     </row>
     <row r="30" spans="1:3" ht="21">
       <c r="A30" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>4</v>
@@ -4014,10 +4044,10 @@
     </row>
     <row r="31" spans="1:3" ht="21">
       <c r="A31" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>4</v>
@@ -4025,10 +4055,10 @@
     </row>
     <row r="32" spans="1:3" ht="21">
       <c r="A32" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>4</v>
@@ -4036,10 +4066,10 @@
     </row>
     <row r="33" spans="1:3" ht="21">
       <c r="A33" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>4</v>
@@ -4047,10 +4077,10 @@
     </row>
     <row r="34" spans="1:3" ht="21">
       <c r="A34" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>4</v>
@@ -4058,10 +4088,10 @@
     </row>
     <row r="35" spans="1:3" ht="21">
       <c r="A35" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>4</v>
@@ -4069,10 +4099,10 @@
     </row>
     <row r="36" spans="1:3" ht="21">
       <c r="A36" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>4</v>
@@ -4080,10 +4110,10 @@
     </row>
     <row r="37" spans="1:3" ht="21">
       <c r="A37" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>4</v>
@@ -4091,10 +4121,10 @@
     </row>
     <row r="38" spans="1:3" ht="21">
       <c r="A38" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>4</v>
@@ -4102,7 +4132,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="B39" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
   </sheetData>
@@ -4154,8 +4184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EBE7423-8839-4DE5-A767-E189B7192632}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView zoomScale="90" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -4167,10 +4197,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="21">
       <c r="A1" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>323</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>324</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>4</v>
@@ -4178,10 +4208,10 @@
     </row>
     <row r="2" spans="1:3" ht="21">
       <c r="A2" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>4</v>
@@ -4189,10 +4219,10 @@
     </row>
     <row r="3" spans="1:3" ht="21">
       <c r="A3" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
@@ -4200,10 +4230,10 @@
     </row>
     <row r="4" spans="1:3" ht="21">
       <c r="A4" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>4</v>
@@ -4211,10 +4241,10 @@
     </row>
     <row r="5" spans="1:3" ht="21">
       <c r="A5" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>4</v>
@@ -4222,10 +4252,10 @@
     </row>
     <row r="6" spans="1:3" ht="21">
       <c r="A6" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>4</v>
@@ -4233,10 +4263,10 @@
     </row>
     <row r="7" spans="1:3" ht="21">
       <c r="A7" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>4</v>
@@ -4244,10 +4274,10 @@
     </row>
     <row r="8" spans="1:3" ht="21">
       <c r="A8" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>4</v>
@@ -4255,10 +4285,10 @@
     </row>
     <row r="9" spans="1:3" ht="21">
       <c r="A9" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>4</v>
@@ -4266,10 +4296,10 @@
     </row>
     <row r="10" spans="1:3" ht="21">
       <c r="A10" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>4</v>
@@ -4277,10 +4307,10 @@
     </row>
     <row r="11" spans="1:3" ht="21">
       <c r="A11" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>4</v>
@@ -4288,10 +4318,10 @@
     </row>
     <row r="12" spans="1:3" ht="21">
       <c r="A12" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>4</v>
@@ -4299,10 +4329,10 @@
     </row>
     <row r="13" spans="1:3" ht="21">
       <c r="A13" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>4</v>
@@ -4310,10 +4340,10 @@
     </row>
     <row r="14" spans="1:3" ht="21">
       <c r="A14" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>4</v>
@@ -4321,10 +4351,10 @@
     </row>
     <row r="15" spans="1:3" ht="21">
       <c r="A15" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>4</v>
@@ -4332,10 +4362,10 @@
     </row>
     <row r="16" spans="1:3" ht="21">
       <c r="A16" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>4</v>
@@ -4343,10 +4373,10 @@
     </row>
     <row r="17" spans="1:3" ht="21">
       <c r="A17" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>4</v>
@@ -4354,10 +4384,10 @@
     </row>
     <row r="18" spans="1:3" ht="21">
       <c r="A18" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>4</v>
@@ -4390,64 +4420,67 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{259A43F6-3F68-4371-AB45-15BD14F8283F}">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="7.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="107.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="107.69921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21">
       <c r="A1" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>343</v>
-      </c>
       <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="21">
       <c r="A2" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21">
       <c r="A3" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21">
       <c r="A4" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>4</v>
@@ -4455,10 +4488,10 @@
     </row>
     <row r="5" spans="1:4" ht="21">
       <c r="A5" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>4</v>
@@ -4466,32 +4499,38 @@
     </row>
     <row r="6" spans="1:4" ht="21">
       <c r="A6" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21">
       <c r="A7" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="21">
       <c r="A8" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>4</v>
@@ -4499,10 +4538,10 @@
     </row>
     <row r="9" spans="1:4" ht="21">
       <c r="A9" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>4</v>
@@ -4510,10 +4549,10 @@
     </row>
     <row r="10" spans="1:4" ht="21">
       <c r="A10" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>4</v>
@@ -4521,10 +4560,10 @@
     </row>
     <row r="11" spans="1:4" ht="21">
       <c r="A11" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>4</v>
@@ -4532,21 +4571,24 @@
     </row>
     <row r="12" spans="1:4" ht="21">
       <c r="A12" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>354</v>
+        <v>477</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="21">
       <c r="A13" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>4</v>
@@ -4554,10 +4596,10 @@
     </row>
     <row r="14" spans="1:4" ht="21">
       <c r="A14" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>4</v>
@@ -4565,10 +4607,10 @@
     </row>
     <row r="15" spans="1:4" ht="21">
       <c r="A15" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>4</v>
@@ -4576,10 +4618,10 @@
     </row>
     <row r="16" spans="1:4" ht="21">
       <c r="A16" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>4</v>
@@ -4587,10 +4629,10 @@
     </row>
     <row r="17" spans="1:3" ht="21">
       <c r="A17" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>4</v>
@@ -4598,10 +4640,10 @@
     </row>
     <row r="18" spans="1:3" ht="21">
       <c r="A18" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>4</v>
@@ -4609,10 +4651,10 @@
     </row>
     <row r="19" spans="1:3" ht="21">
       <c r="A19" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>4</v>
@@ -4620,10 +4662,10 @@
     </row>
     <row r="20" spans="1:3" ht="21">
       <c r="A20" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>4</v>
@@ -4631,10 +4673,10 @@
     </row>
     <row r="21" spans="1:3" ht="21">
       <c r="A21" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>4</v>
@@ -4642,10 +4684,10 @@
     </row>
     <row r="22" spans="1:3" ht="21">
       <c r="A22" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>4</v>
@@ -4653,10 +4695,10 @@
     </row>
     <row r="23" spans="1:3" ht="21">
       <c r="A23" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>4</v>
@@ -4664,10 +4706,10 @@
     </row>
     <row r="24" spans="1:3" ht="21">
       <c r="A24" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>4</v>
@@ -4675,10 +4717,10 @@
     </row>
     <row r="25" spans="1:3" ht="21">
       <c r="A25" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>4</v>
@@ -4686,10 +4728,10 @@
     </row>
     <row r="26" spans="1:3" ht="21">
       <c r="A26" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>4</v>
@@ -4697,10 +4739,10 @@
     </row>
     <row r="27" spans="1:3" ht="21">
       <c r="A27" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>4</v>
@@ -4708,10 +4750,10 @@
     </row>
     <row r="28" spans="1:3" ht="21">
       <c r="A28" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>4</v>
@@ -4719,10 +4761,10 @@
     </row>
     <row r="29" spans="1:3" ht="21">
       <c r="A29" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>4</v>
@@ -4730,10 +4772,10 @@
     </row>
     <row r="30" spans="1:3" ht="21">
       <c r="A30" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>4</v>
@@ -4741,10 +4783,10 @@
     </row>
     <row r="31" spans="1:3" ht="21">
       <c r="A31" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>4</v>
@@ -4752,10 +4794,10 @@
     </row>
     <row r="32" spans="1:3" ht="21">
       <c r="A32" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>4</v>
@@ -4763,10 +4805,10 @@
     </row>
     <row r="33" spans="1:3" ht="21">
       <c r="A33" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>4</v>
@@ -4774,10 +4816,10 @@
     </row>
     <row r="34" spans="1:3" ht="21">
       <c r="A34" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>4</v>
@@ -4785,10 +4827,10 @@
     </row>
     <row r="35" spans="1:3" ht="21">
       <c r="A35" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>4</v>
@@ -4796,10 +4838,10 @@
     </row>
     <row r="36" spans="1:3" ht="21">
       <c r="A36" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>4</v>
@@ -4807,10 +4849,10 @@
     </row>
     <row r="37" spans="1:3" ht="21">
       <c r="A37" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>4</v>
@@ -4818,10 +4860,10 @@
     </row>
     <row r="38" spans="1:3" ht="21">
       <c r="A38" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>4</v>
@@ -4829,10 +4871,10 @@
     </row>
     <row r="39" spans="1:3" ht="21">
       <c r="A39" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>4</v>
@@ -4840,10 +4882,10 @@
     </row>
     <row r="40" spans="1:3" ht="21">
       <c r="A40" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>4</v>
@@ -4851,10 +4893,10 @@
     </row>
     <row r="41" spans="1:3" ht="21">
       <c r="A41" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>4</v>
@@ -4862,10 +4904,10 @@
     </row>
     <row r="42" spans="1:3" ht="21">
       <c r="A42" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>4</v>
@@ -4873,10 +4915,10 @@
     </row>
     <row r="43" spans="1:3" ht="21">
       <c r="A43" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>4</v>
@@ -4884,13 +4926,21 @@
     </row>
     <row r="44" spans="1:3" ht="21">
       <c r="A44" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="21">
+      <c r="A45" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>484</v>
       </c>
     </row>
   </sheetData>
@@ -4905,7 +4955,7 @@
     <hyperlink ref="B9" r:id="rId8" xr:uid="{BCAD1ECB-15EE-CF49-878E-AA682DE3AC22}"/>
     <hyperlink ref="B10" r:id="rId9" xr:uid="{C85468B5-25E9-E446-808E-72CFE911F0C2}"/>
     <hyperlink ref="B11" r:id="rId10" xr:uid="{9503AECA-1A6A-9640-A04C-4CEAA2304448}"/>
-    <hyperlink ref="B12" r:id="rId11" xr:uid="{74211516-06B0-AA45-845B-52C8202751DA}"/>
+    <hyperlink ref="B12" r:id="rId11" display="Dijkstra algo" xr:uid="{74211516-06B0-AA45-845B-52C8202751DA}"/>
     <hyperlink ref="B13" r:id="rId12" xr:uid="{02C696BC-4B91-9444-900F-9CD68E409ABC}"/>
     <hyperlink ref="B14" r:id="rId13" xr:uid="{04646C45-4118-374C-839D-94D31D534FAC}"/>
     <hyperlink ref="B15" r:id="rId14" xr:uid="{F90BCCAE-8596-FC4D-BDD7-774392C596DF}"/>
@@ -4939,8 +4989,10 @@
     <hyperlink ref="B43" r:id="rId42" xr:uid="{F8807DD9-F4F2-B147-9C31-DBC93B2E477B}"/>
     <hyperlink ref="B44" r:id="rId43" xr:uid="{6F7B396C-D7E9-C04E-BAE2-53D2EE07172B}"/>
     <hyperlink ref="B1" r:id="rId44" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
+    <hyperlink ref="B45" r:id="rId45" xr:uid="{DE850060-CE26-4E7C-9578-E2A6D1EA5BE2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId46"/>
 </worksheet>
 </file>
 
@@ -4948,66 +5000,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFABF3FB-749B-4138-834B-171C98BA04B6}">
   <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView zoomScale="81" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="24.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.69921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="116.69921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.296875" customWidth="1"/>
+    <col min="4" max="4" width="11.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21">
       <c r="A1" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="21">
       <c r="A2" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>394</v>
-      </c>
       <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21">
       <c r="A3" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21">
       <c r="A4" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>4</v>
@@ -5015,10 +5067,10 @@
     </row>
     <row r="5" spans="1:4" ht="21">
       <c r="A5" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>4</v>
@@ -5026,10 +5078,10 @@
     </row>
     <row r="6" spans="1:4" ht="21">
       <c r="A6" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>4</v>
@@ -5037,38 +5089,38 @@
     </row>
     <row r="7" spans="1:4" ht="21">
       <c r="A7" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="21">
       <c r="A8" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="21">
       <c r="A9" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>4</v>
@@ -5076,10 +5128,10 @@
     </row>
     <row r="10" spans="1:4" ht="21">
       <c r="A10" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>4</v>
@@ -5087,10 +5139,10 @@
     </row>
     <row r="11" spans="1:4" ht="21">
       <c r="A11" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>4</v>
@@ -5098,10 +5150,10 @@
     </row>
     <row r="12" spans="1:4" ht="21">
       <c r="A12" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>4</v>
@@ -5109,10 +5161,10 @@
     </row>
     <row r="13" spans="1:4" ht="21">
       <c r="A13" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>4</v>
@@ -5120,38 +5172,38 @@
     </row>
     <row r="14" spans="1:4" ht="21">
       <c r="A14" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="21">
       <c r="A15" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="21">
       <c r="A16" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>4</v>
@@ -5159,10 +5211,10 @@
     </row>
     <row r="17" spans="1:4" ht="21">
       <c r="A17" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>4</v>
@@ -5170,10 +5222,10 @@
     </row>
     <row r="18" spans="1:4" ht="21">
       <c r="A18" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>4</v>
@@ -5181,10 +5233,10 @@
     </row>
     <row r="19" spans="1:4" ht="21">
       <c r="A19" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>4</v>
@@ -5192,10 +5244,10 @@
     </row>
     <row r="20" spans="1:4" ht="21">
       <c r="A20" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>4</v>
@@ -5203,10 +5255,10 @@
     </row>
     <row r="21" spans="1:4" ht="21">
       <c r="A21" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>4</v>
@@ -5214,10 +5266,10 @@
     </row>
     <row r="22" spans="1:4" ht="21">
       <c r="A22" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>4</v>
@@ -5225,10 +5277,10 @@
     </row>
     <row r="23" spans="1:4" ht="21">
       <c r="A23" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>4</v>
@@ -5236,10 +5288,10 @@
     </row>
     <row r="24" spans="1:4" ht="21">
       <c r="A24" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>4</v>
@@ -5247,10 +5299,10 @@
     </row>
     <row r="25" spans="1:4" ht="21">
       <c r="A25" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>4</v>
@@ -5258,10 +5310,10 @@
     </row>
     <row r="26" spans="1:4" ht="21">
       <c r="A26" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>4</v>
@@ -5269,10 +5321,10 @@
     </row>
     <row r="27" spans="1:4" ht="21">
       <c r="A27" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>4</v>
@@ -5280,10 +5332,10 @@
     </row>
     <row r="28" spans="1:4" ht="21">
       <c r="A28" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>4</v>
@@ -5291,24 +5343,24 @@
     </row>
     <row r="29" spans="1:4" ht="21">
       <c r="A29" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="21">
       <c r="A30" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>4</v>
@@ -5316,10 +5368,10 @@
     </row>
     <row r="31" spans="1:4" ht="21">
       <c r="A31" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>4</v>
@@ -5327,10 +5379,10 @@
     </row>
     <row r="32" spans="1:4" ht="21">
       <c r="A32" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>4</v>
@@ -5338,10 +5390,10 @@
     </row>
     <row r="33" spans="1:3" ht="21">
       <c r="A33" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>4</v>
@@ -5349,10 +5401,10 @@
     </row>
     <row r="34" spans="1:3" ht="21">
       <c r="A34" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>4</v>
@@ -5360,10 +5412,10 @@
     </row>
     <row r="35" spans="1:3" ht="21">
       <c r="A35" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>4</v>
@@ -5371,10 +5423,10 @@
     </row>
     <row r="36" spans="1:3" ht="21">
       <c r="A36" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>4</v>
@@ -5382,10 +5434,10 @@
     </row>
     <row r="37" spans="1:3" ht="21">
       <c r="A37" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>4</v>
@@ -5393,10 +5445,10 @@
     </row>
     <row r="38" spans="1:3" ht="21">
       <c r="A38" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>4</v>
@@ -5404,10 +5456,10 @@
     </row>
     <row r="39" spans="1:3" ht="21">
       <c r="A39" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>4</v>
@@ -5415,10 +5467,10 @@
     </row>
     <row r="40" spans="1:3" ht="21">
       <c r="A40" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>4</v>
@@ -5426,10 +5478,10 @@
     </row>
     <row r="41" spans="1:3" ht="21">
       <c r="A41" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>4</v>
@@ -5437,10 +5489,10 @@
     </row>
     <row r="42" spans="1:3" ht="21">
       <c r="A42" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>4</v>
@@ -5448,10 +5500,10 @@
     </row>
     <row r="43" spans="1:3" ht="21">
       <c r="A43" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>4</v>
@@ -5459,10 +5511,10 @@
     </row>
     <row r="44" spans="1:3" ht="21">
       <c r="A44" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>4</v>
@@ -5470,10 +5522,10 @@
     </row>
     <row r="45" spans="1:3" ht="21">
       <c r="A45" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>4</v>
@@ -5481,10 +5533,10 @@
     </row>
     <row r="46" spans="1:3" ht="21">
       <c r="A46" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>4</v>
@@ -5492,10 +5544,10 @@
     </row>
     <row r="47" spans="1:3" ht="21">
       <c r="A47" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>4</v>
@@ -5503,10 +5555,10 @@
     </row>
     <row r="48" spans="1:3" ht="21">
       <c r="A48" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>4</v>
@@ -5514,10 +5566,10 @@
     </row>
     <row r="49" spans="1:3" ht="21">
       <c r="A49" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>4</v>
@@ -5525,10 +5577,10 @@
     </row>
     <row r="50" spans="1:3" ht="21">
       <c r="A50" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>4</v>
@@ -5536,10 +5588,10 @@
     </row>
     <row r="51" spans="1:3" ht="21">
       <c r="A51" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>4</v>
@@ -5547,10 +5599,10 @@
     </row>
     <row r="52" spans="1:3" ht="21">
       <c r="A52" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>4</v>
@@ -5558,10 +5610,10 @@
     </row>
     <row r="53" spans="1:3" ht="21">
       <c r="A53" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>4</v>
@@ -5569,10 +5621,10 @@
     </row>
     <row r="54" spans="1:3" ht="21">
       <c r="A54" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>4</v>
@@ -5580,10 +5632,10 @@
     </row>
     <row r="55" spans="1:3" ht="21">
       <c r="A55" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>4</v>
@@ -5591,10 +5643,10 @@
     </row>
     <row r="56" spans="1:3" ht="21">
       <c r="A56" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>4</v>
@@ -5602,10 +5654,10 @@
     </row>
     <row r="57" spans="1:3" ht="21">
       <c r="A57" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>4</v>
@@ -5613,10 +5665,10 @@
     </row>
     <row r="58" spans="1:3" ht="21">
       <c r="A58" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>4</v>
@@ -5624,10 +5676,10 @@
     </row>
     <row r="59" spans="1:3" ht="21">
       <c r="A59" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>4</v>
@@ -5635,10 +5687,10 @@
     </row>
     <row r="60" spans="1:3" ht="21">
       <c r="A60" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>4</v>
@@ -5713,10 +5765,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C09B40FD-09B2-4523-B291-2BAD0AA6FA26}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView zoomScale="74" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView zoomScale="84" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -5726,177 +5778,186 @@
     <col min="3" max="3" width="3.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21">
+    <row r="1" spans="1:4" ht="21">
       <c r="A1" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="21">
+      <c r="A2" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="21">
-      <c r="A2" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="21">
+      <c r="A3" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="21">
-      <c r="A3" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="21">
+      <c r="A4" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="21">
-      <c r="A4" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="21">
+      <c r="A5" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="21">
-      <c r="A5" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="C5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="21">
+      <c r="A6" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="21">
-      <c r="A6" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="21">
+      <c r="A7" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="21">
-      <c r="A7" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B7" s="6" t="s">
+      <c r="C7" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="21">
+      <c r="A8" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="21">
-      <c r="A8" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B8" s="6" t="s">
+      <c r="C8" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="21">
+      <c r="A9" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="21">
-      <c r="A9" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B9" s="6" t="s">
+      <c r="C9" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="21">
+      <c r="A10" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="21">
-      <c r="A10" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B10" s="6" t="s">
+      <c r="C10" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="21">
+      <c r="A11" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="21">
-      <c r="A11" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B11" s="6" t="s">
+      <c r="C11" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="21">
+      <c r="A12" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="21">
-      <c r="A12" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B12" s="6" t="s">
+      <c r="C12" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="21">
+      <c r="A13" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="21">
-      <c r="A13" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B13" s="6" t="s">
+      <c r="C13" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="21">
+      <c r="A14" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="21">
-      <c r="A14" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B14" s="6" t="s">
+      <c r="C14" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="21">
+      <c r="A15" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="21">
-      <c r="A15" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B15" s="6" t="s">
+      <c r="C15" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="21">
+      <c r="A16" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>148</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="21">
-      <c r="A16" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>149</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>4</v>
@@ -5904,10 +5965,10 @@
     </row>
     <row r="17" spans="1:3" ht="21">
       <c r="A17" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>4</v>
@@ -5915,10 +5976,10 @@
     </row>
     <row r="18" spans="1:3" ht="21">
       <c r="A18" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>4</v>
@@ -5926,10 +5987,10 @@
     </row>
     <row r="19" spans="1:3" ht="21">
       <c r="A19" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>4</v>
@@ -5937,10 +5998,10 @@
     </row>
     <row r="20" spans="1:3" ht="21">
       <c r="A20" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>4</v>
@@ -5948,10 +6009,10 @@
     </row>
     <row r="21" spans="1:3" ht="21">
       <c r="A21" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>4</v>
@@ -5959,10 +6020,10 @@
     </row>
     <row r="22" spans="1:3" ht="21">
       <c r="A22" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>4</v>
@@ -5970,10 +6031,10 @@
     </row>
     <row r="23" spans="1:3" ht="21">
       <c r="A23" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>4</v>
@@ -5981,10 +6042,10 @@
     </row>
     <row r="24" spans="1:3" ht="21">
       <c r="A24" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>4</v>
@@ -5992,10 +6053,10 @@
     </row>
     <row r="25" spans="1:3" ht="21">
       <c r="A25" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>4</v>
@@ -6003,10 +6064,10 @@
     </row>
     <row r="26" spans="1:3" ht="21">
       <c r="A26" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>4</v>
@@ -6014,10 +6075,10 @@
     </row>
     <row r="27" spans="1:3" ht="21">
       <c r="A27" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>4</v>
@@ -6025,10 +6086,10 @@
     </row>
     <row r="28" spans="1:3" ht="21">
       <c r="A28" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>4</v>
@@ -6036,10 +6097,10 @@
     </row>
     <row r="29" spans="1:3" ht="21">
       <c r="A29" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>4</v>
@@ -6047,10 +6108,10 @@
     </row>
     <row r="30" spans="1:3" ht="21">
       <c r="A30" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>4</v>
@@ -6058,10 +6119,10 @@
     </row>
     <row r="31" spans="1:3" ht="21">
       <c r="A31" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>4</v>
@@ -6069,10 +6130,10 @@
     </row>
     <row r="32" spans="1:3" ht="21">
       <c r="A32" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>4</v>
@@ -6080,10 +6141,10 @@
     </row>
     <row r="33" spans="1:3" ht="21">
       <c r="A33" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>4</v>
@@ -6091,10 +6152,10 @@
     </row>
     <row r="34" spans="1:3" ht="21">
       <c r="A34" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>4</v>
@@ -6102,10 +6163,10 @@
     </row>
     <row r="35" spans="1:3" ht="21">
       <c r="A35" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>4</v>
@@ -6113,10 +6174,10 @@
     </row>
     <row r="36" spans="1:3" ht="21">
       <c r="A36" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>4</v>
@@ -6165,209 +6226,225 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13B26CD-4436-44E7-BE0F-F10BF9B0E501}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView zoomScale="80" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="14.09765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="83.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.3984375" customWidth="1"/>
     <col min="4" max="4" width="6.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21">
+    <row r="1" spans="1:5" ht="21">
       <c r="A1" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="21">
+      <c r="A2" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="21">
-      <c r="A2" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="21">
+      <c r="A3" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="21">
-      <c r="A3" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="21">
+      <c r="A4" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="21">
-      <c r="A4" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="21">
+      <c r="A5" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="21">
-      <c r="A5" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="C5" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="21">
+      <c r="A6" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="21">
-      <c r="A6" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="21">
+      <c r="A7" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="21">
-      <c r="A7" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B7" s="6" t="s">
+      <c r="C7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="21">
+      <c r="A8" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="21">
-      <c r="A8" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B8" s="6" t="s">
+      <c r="C8" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="21">
+      <c r="A9" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="21">
-      <c r="A9" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B9" s="6" t="s">
+      <c r="C9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="21">
+      <c r="A10" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="21">
-      <c r="A10" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B10" s="6" t="s">
+      <c r="C10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="21">
+      <c r="A11" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" t="s">
+        <v>462</v>
+      </c>
+      <c r="E11" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="21">
+      <c r="A12" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="21">
-      <c r="A11" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B11" s="6" t="s">
+      <c r="C12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="21">
+      <c r="A13" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="21">
-      <c r="A12" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B12" s="6" t="s">
+      <c r="C13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="21">
+      <c r="A14" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="21">
-      <c r="A13" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B13" s="6" t="s">
+      <c r="C14" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="21">
+      <c r="A15" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="21">
-      <c r="A14" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B14" s="6" t="s">
+      <c r="C15" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="21">
+      <c r="A16" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>184</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="21">
-      <c r="A15" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="21">
-      <c r="A16" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>186</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>4</v>
@@ -6375,10 +6452,10 @@
     </row>
     <row r="17" spans="1:3" ht="21">
       <c r="A17" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>4</v>
@@ -6386,10 +6463,10 @@
     </row>
     <row r="18" spans="1:3" ht="21">
       <c r="A18" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>4</v>
@@ -6397,10 +6474,10 @@
     </row>
     <row r="19" spans="1:3" ht="21">
       <c r="A19" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>4</v>
@@ -6408,10 +6485,10 @@
     </row>
     <row r="20" spans="1:3" ht="21">
       <c r="A20" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>4</v>
@@ -6419,10 +6496,10 @@
     </row>
     <row r="21" spans="1:3" ht="21">
       <c r="A21" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>4</v>
@@ -6430,10 +6507,10 @@
     </row>
     <row r="22" spans="1:3" ht="21">
       <c r="A22" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>4</v>
@@ -6441,10 +6518,10 @@
     </row>
     <row r="23" spans="1:3" ht="21">
       <c r="A23" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>4</v>
@@ -6452,10 +6529,10 @@
     </row>
     <row r="24" spans="1:3" ht="21">
       <c r="A24" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>4</v>
@@ -6463,10 +6540,10 @@
     </row>
     <row r="25" spans="1:3" ht="21">
       <c r="A25" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>4</v>
@@ -6474,10 +6551,10 @@
     </row>
     <row r="26" spans="1:3" ht="21">
       <c r="A26" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>4</v>
@@ -6485,10 +6562,10 @@
     </row>
     <row r="27" spans="1:3" ht="21">
       <c r="A27" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>4</v>
@@ -6496,10 +6573,10 @@
     </row>
     <row r="28" spans="1:3" ht="21">
       <c r="A28" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>4</v>
@@ -6507,10 +6584,10 @@
     </row>
     <row r="29" spans="1:3" ht="21">
       <c r="A29" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>4</v>
@@ -6518,10 +6595,10 @@
     </row>
     <row r="30" spans="1:3" ht="21">
       <c r="A30" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>4</v>
@@ -6529,10 +6606,10 @@
     </row>
     <row r="31" spans="1:3" ht="21">
       <c r="A31" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>4</v>
@@ -6540,10 +6617,10 @@
     </row>
     <row r="32" spans="1:3" ht="21">
       <c r="A32" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>4</v>
@@ -6551,10 +6628,10 @@
     </row>
     <row r="33" spans="1:3" ht="21">
       <c r="A33" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>4</v>
@@ -6562,10 +6639,10 @@
     </row>
     <row r="34" spans="1:3" ht="21">
       <c r="A34" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>4</v>
@@ -6573,12 +6650,23 @@
     </row>
     <row r="35" spans="1:3" ht="21">
       <c r="A35" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C35" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="21">
+      <c r="A36" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6594,222 +6682,230 @@
     <hyperlink ref="B8" r:id="rId8" xr:uid="{B9CBE387-8E9A-ED48-8310-CF7D34FA690C}"/>
     <hyperlink ref="B9" r:id="rId9" xr:uid="{5398097B-24FF-9543-8F02-33CE2860F1F7}"/>
     <hyperlink ref="B10" r:id="rId10" xr:uid="{3B1FC30B-30C8-7B48-AF94-A81FB513F24F}"/>
-    <hyperlink ref="B11" r:id="rId11" xr:uid="{32B750D0-D7F2-694D-AB9B-25AFAFAFF17F}"/>
-    <hyperlink ref="B12" r:id="rId12" xr:uid="{400689DD-8E95-024E-976B-AACD8ED4E1A6}"/>
-    <hyperlink ref="B13" r:id="rId13" xr:uid="{28753DDE-E047-5D40-A30B-1103BE6DA08F}"/>
-    <hyperlink ref="B14" r:id="rId14" xr:uid="{6C5AA6CB-3D93-0740-AEED-9E6C218CF6CB}"/>
-    <hyperlink ref="B15" r:id="rId15" xr:uid="{03EAA2B9-D8B8-D642-BF24-380596D26B2E}"/>
-    <hyperlink ref="B16" r:id="rId16" xr:uid="{8C1719B4-37CC-484E-BDCE-A4272C07F91B}"/>
-    <hyperlink ref="B17" r:id="rId17" xr:uid="{6C198DA2-BB98-F940-8EF6-2FC8B7AE577A}"/>
-    <hyperlink ref="B18" r:id="rId18" xr:uid="{AB0EA311-A446-D046-A0EC-290B42068328}"/>
-    <hyperlink ref="B19" r:id="rId19" xr:uid="{DB913045-B9F6-6549-AA09-22B0CC5FDD21}"/>
-    <hyperlink ref="B20" r:id="rId20" xr:uid="{806469FD-617A-7445-AAB5-FB2FD2ED24EA}"/>
-    <hyperlink ref="B21" r:id="rId21" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{1A10544E-58CF-D04D-9FAF-2FEC6DB2B5D4}"/>
-    <hyperlink ref="B22" r:id="rId22" xr:uid="{5A0B6645-89FD-E044-A706-9FB890274C3C}"/>
-    <hyperlink ref="B23" r:id="rId23" xr:uid="{B42A3009-E8EB-EE44-885F-6699C17A0E0B}"/>
-    <hyperlink ref="B24" r:id="rId24" xr:uid="{ED3E48AB-E25B-3744-B024-E97B2A319B46}"/>
-    <hyperlink ref="B25" r:id="rId25" xr:uid="{C75D20A3-CBAE-2649-A3EE-E49177CFA343}"/>
-    <hyperlink ref="B26" r:id="rId26" xr:uid="{3863CA1B-D43E-1144-91A9-17C2DCF52A64}"/>
-    <hyperlink ref="B27" r:id="rId27" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{E9AF434E-4CAA-5D49-8AD3-889CDE2913D9}"/>
-    <hyperlink ref="B28" r:id="rId28" xr:uid="{1A0568E5-3A11-7F47-8001-82B05D7C2339}"/>
-    <hyperlink ref="B29" r:id="rId29" xr:uid="{F62B8AE4-9C4F-9544-8861-CD733C12F79E}"/>
-    <hyperlink ref="B30" r:id="rId30" xr:uid="{0F6A542C-44C9-5A4C-90BF-BC8C239877D2}"/>
-    <hyperlink ref="B31" r:id="rId31" xr:uid="{3ED28203-B1B5-4E46-AAF3-779EDD4AC03F}"/>
-    <hyperlink ref="B32" r:id="rId32" xr:uid="{4338B305-B52F-5540-9B51-B938FC6803A2}"/>
-    <hyperlink ref="B33" r:id="rId33" xr:uid="{DDEEED0F-A939-1E4F-B2FA-AD391A4A2874}"/>
-    <hyperlink ref="B34" r:id="rId34" xr:uid="{C2F20589-AD81-654C-94E5-E5B6C9FE27F6}"/>
-    <hyperlink ref="B35" r:id="rId35" xr:uid="{BBEB9DAC-E4AE-C04F-AA15-6356AFC57FDE}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{32B750D0-D7F2-694D-AB9B-25AFAFAFF17F}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{400689DD-8E95-024E-976B-AACD8ED4E1A6}"/>
+    <hyperlink ref="B14" r:id="rId13" xr:uid="{28753DDE-E047-5D40-A30B-1103BE6DA08F}"/>
+    <hyperlink ref="B15" r:id="rId14" xr:uid="{6C5AA6CB-3D93-0740-AEED-9E6C218CF6CB}"/>
+    <hyperlink ref="B16" r:id="rId15" xr:uid="{03EAA2B9-D8B8-D642-BF24-380596D26B2E}"/>
+    <hyperlink ref="B17" r:id="rId16" xr:uid="{8C1719B4-37CC-484E-BDCE-A4272C07F91B}"/>
+    <hyperlink ref="B18" r:id="rId17" xr:uid="{6C198DA2-BB98-F940-8EF6-2FC8B7AE577A}"/>
+    <hyperlink ref="B19" r:id="rId18" xr:uid="{AB0EA311-A446-D046-A0EC-290B42068328}"/>
+    <hyperlink ref="B20" r:id="rId19" xr:uid="{DB913045-B9F6-6549-AA09-22B0CC5FDD21}"/>
+    <hyperlink ref="B21" r:id="rId20" xr:uid="{806469FD-617A-7445-AAB5-FB2FD2ED24EA}"/>
+    <hyperlink ref="B22" r:id="rId21" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{1A10544E-58CF-D04D-9FAF-2FEC6DB2B5D4}"/>
+    <hyperlink ref="B23" r:id="rId22" xr:uid="{5A0B6645-89FD-E044-A706-9FB890274C3C}"/>
+    <hyperlink ref="B24" r:id="rId23" xr:uid="{B42A3009-E8EB-EE44-885F-6699C17A0E0B}"/>
+    <hyperlink ref="B25" r:id="rId24" xr:uid="{ED3E48AB-E25B-3744-B024-E97B2A319B46}"/>
+    <hyperlink ref="B26" r:id="rId25" xr:uid="{C75D20A3-CBAE-2649-A3EE-E49177CFA343}"/>
+    <hyperlink ref="B27" r:id="rId26" xr:uid="{3863CA1B-D43E-1144-91A9-17C2DCF52A64}"/>
+    <hyperlink ref="B28" r:id="rId27" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{E9AF434E-4CAA-5D49-8AD3-889CDE2913D9}"/>
+    <hyperlink ref="B29" r:id="rId28" xr:uid="{1A0568E5-3A11-7F47-8001-82B05D7C2339}"/>
+    <hyperlink ref="B30" r:id="rId29" xr:uid="{F62B8AE4-9C4F-9544-8861-CD733C12F79E}"/>
+    <hyperlink ref="B31" r:id="rId30" xr:uid="{0F6A542C-44C9-5A4C-90BF-BC8C239877D2}"/>
+    <hyperlink ref="B32" r:id="rId31" xr:uid="{3ED28203-B1B5-4E46-AAF3-779EDD4AC03F}"/>
+    <hyperlink ref="B33" r:id="rId32" xr:uid="{4338B305-B52F-5540-9B51-B938FC6803A2}"/>
+    <hyperlink ref="B34" r:id="rId33" xr:uid="{DDEEED0F-A939-1E4F-B2FA-AD391A4A2874}"/>
+    <hyperlink ref="B35" r:id="rId34" xr:uid="{C2F20589-AD81-654C-94E5-E5B6C9FE27F6}"/>
+    <hyperlink ref="B36" r:id="rId35" xr:uid="{BBEB9DAC-E4AE-C04F-AA15-6356AFC57FDE}"/>
+    <hyperlink ref="B11" r:id="rId36" xr:uid="{70200452-AF29-4700-ACDE-3B4BDA43F240}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId37"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77ED6905-42CD-41A9-A40A-08507E6686AB}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView zoomScale="79" workbookViewId="0">
-      <selection sqref="A1:D22"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="21.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.69921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="73" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21">
+    <row r="1" spans="1:4" ht="21">
       <c r="A1" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="21">
+      <c r="A2" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="21">
-      <c r="A2" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="21">
+      <c r="A3" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="21">
-      <c r="A3" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="21">
+      <c r="A4" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="21">
-      <c r="A4" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="21">
+      <c r="A5" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="21">
-      <c r="A5" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="C5" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="21">
+      <c r="A6" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="21">
-      <c r="A6" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="21">
+      <c r="A7" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="21">
-      <c r="A7" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="B7" s="9" t="s">
+      <c r="C7" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="21">
+      <c r="A8" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="21">
-      <c r="A8" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="B8" s="6" t="s">
+      <c r="C8" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="21">
+      <c r="A9" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="21">
-      <c r="A9" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="B9" s="6" t="s">
+      <c r="C9" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="21">
+      <c r="A10" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="21">
-      <c r="A10" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="B10" s="6" t="s">
+      <c r="C10" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="21">
+      <c r="A11" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="21">
-      <c r="A11" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="B11" s="6" t="s">
+      <c r="C11" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="21">
+      <c r="A12" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="21">
-      <c r="A12" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="B12" s="6" t="s">
+      <c r="C12" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="21">
+      <c r="A13" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="21">
-      <c r="A13" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="B13" s="6" t="s">
+      <c r="C13" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="21">
+      <c r="A14" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="21">
-      <c r="A14" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="B14" s="6" t="s">
+      <c r="C14" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="21">
+      <c r="A15" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="21">
-      <c r="A15" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="B15" s="6" t="s">
+      <c r="C15" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="21">
+      <c r="A16" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>221</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="21">
-      <c r="A16" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>222</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>4</v>
@@ -6817,10 +6913,10 @@
     </row>
     <row r="17" spans="1:3" ht="21">
       <c r="A17" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>4</v>
@@ -6828,10 +6924,10 @@
     </row>
     <row r="18" spans="1:3" ht="21">
       <c r="A18" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>4</v>
@@ -6839,10 +6935,10 @@
     </row>
     <row r="19" spans="1:3" ht="21">
       <c r="A19" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>4</v>
@@ -6850,10 +6946,10 @@
     </row>
     <row r="20" spans="1:3" ht="21">
       <c r="A20" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>4</v>
@@ -6861,10 +6957,10 @@
     </row>
     <row r="21" spans="1:3" ht="21">
       <c r="A21" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>4</v>
@@ -6872,10 +6968,10 @@
     </row>
     <row r="22" spans="1:3" ht="21">
       <c r="A22" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>4</v>
@@ -6912,214 +7008,230 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F955F28-86A0-437C-99DE-8103B4C15BB2}">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView zoomScale="81" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="81" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="7.19921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="101.8984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.69921875" customWidth="1"/>
     <col min="4" max="4" width="9.19921875" customWidth="1"/>
+    <col min="5" max="5" width="14.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21">
+    <row r="1" spans="1:6" ht="21">
       <c r="A1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="21">
+      <c r="A2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="21">
-      <c r="A2" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="21">
+      <c r="A3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="21">
-      <c r="A3" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="21">
+      <c r="A4" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="21">
-      <c r="A4" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="7" t="s">
+      <c r="C4" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="21">
+      <c r="A5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="21">
-      <c r="A5" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="C5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="21">
+      <c r="A6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="21">
-      <c r="A6" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="21">
+      <c r="A7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="21">
-      <c r="A7" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="6" t="s">
+      <c r="C7" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="21">
+      <c r="A8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="21">
-      <c r="A8" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" s="6" t="s">
+      <c r="C8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="21">
+      <c r="A9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="21">
-      <c r="A9" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="6" t="s">
+      <c r="C9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="21">
+      <c r="A10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="21">
-      <c r="A10" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="6" t="s">
+      <c r="C10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s">
+        <v>482</v>
+      </c>
+      <c r="F10" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="21">
+      <c r="A11" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="21">
-      <c r="A11" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="6" t="s">
+      <c r="C11" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="21">
+      <c r="A12" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="21">
-      <c r="A12" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="6" t="s">
+      <c r="C12" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="21">
+      <c r="A13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="21">
-      <c r="A13" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="6" t="s">
+      <c r="C13" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="21">
+      <c r="A14" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="21">
-      <c r="A14" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="6" t="s">
+      <c r="C14" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="21">
+      <c r="A15" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="21">
-      <c r="A15" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="6" t="s">
+      <c r="C15" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="21">
+      <c r="A16" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="21">
-      <c r="A16" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>68</v>
-      </c>
       <c r="C16" s="4" t="s">
         <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="21">
       <c r="A17" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>4</v>
@@ -7127,10 +7239,10 @@
     </row>
     <row r="18" spans="1:3" ht="21">
       <c r="A18" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>4</v>
@@ -7138,10 +7250,10 @@
     </row>
     <row r="19" spans="1:3" ht="21">
       <c r="A19" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>4</v>
@@ -7149,10 +7261,10 @@
     </row>
     <row r="20" spans="1:3" ht="21">
       <c r="A20" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>4</v>
@@ -7160,10 +7272,10 @@
     </row>
     <row r="21" spans="1:3" ht="21">
       <c r="A21" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>4</v>
@@ -7171,10 +7283,10 @@
     </row>
     <row r="22" spans="1:3" ht="21">
       <c r="A22" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>4</v>
@@ -7182,10 +7294,10 @@
     </row>
     <row r="23" spans="1:3" ht="21">
       <c r="A23" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>4</v>
@@ -7193,10 +7305,10 @@
     </row>
     <row r="24" spans="1:3" ht="21">
       <c r="A24" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>4</v>
@@ -7204,10 +7316,10 @@
     </row>
     <row r="25" spans="1:3" ht="21">
       <c r="A25" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>4</v>
@@ -7215,10 +7327,10 @@
     </row>
     <row r="26" spans="1:3" ht="21">
       <c r="A26" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>4</v>
@@ -7226,10 +7338,10 @@
     </row>
     <row r="27" spans="1:3" ht="21">
       <c r="A27" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>4</v>
@@ -7237,10 +7349,10 @@
     </row>
     <row r="28" spans="1:3" ht="21">
       <c r="A28" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>4</v>
@@ -7248,10 +7360,10 @@
     </row>
     <row r="29" spans="1:3" ht="21">
       <c r="A29" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>4</v>
@@ -7259,10 +7371,10 @@
     </row>
     <row r="30" spans="1:3" ht="21">
       <c r="A30" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>4</v>
@@ -7270,10 +7382,10 @@
     </row>
     <row r="31" spans="1:3" ht="21">
       <c r="A31" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>4</v>
@@ -7281,10 +7393,10 @@
     </row>
     <row r="32" spans="1:3" ht="21">
       <c r="A32" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>4</v>
@@ -7292,10 +7404,10 @@
     </row>
     <row r="33" spans="1:3" ht="21">
       <c r="A33" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>4</v>
@@ -7303,10 +7415,10 @@
     </row>
     <row r="34" spans="1:3" ht="21">
       <c r="A34" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>4</v>
@@ -7314,10 +7426,10 @@
     </row>
     <row r="35" spans="1:3" ht="21">
       <c r="A35" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>4</v>
@@ -7325,10 +7437,10 @@
     </row>
     <row r="36" spans="1:3" ht="21">
       <c r="A36" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>4</v>
@@ -7336,10 +7448,10 @@
     </row>
     <row r="37" spans="1:3" ht="21">
       <c r="A37" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>4</v>
@@ -7347,10 +7459,10 @@
     </row>
     <row r="38" spans="1:3" ht="21">
       <c r="A38" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>4</v>
@@ -7358,10 +7470,10 @@
     </row>
     <row r="39" spans="1:3" ht="21">
       <c r="A39" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>4</v>
@@ -7369,10 +7481,10 @@
     </row>
     <row r="40" spans="1:3" ht="21">
       <c r="A40" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>4</v>
@@ -7380,10 +7492,10 @@
     </row>
     <row r="41" spans="1:3" ht="21">
       <c r="A41" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>4</v>
@@ -7391,10 +7503,10 @@
     </row>
     <row r="42" spans="1:3" ht="21">
       <c r="A42" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>4</v>
@@ -7402,10 +7514,10 @@
     </row>
     <row r="43" spans="1:3" ht="21">
       <c r="A43" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>4</v>
@@ -7413,7 +7525,7 @@
     </row>
     <row r="44" spans="1:3" ht="21">
       <c r="B44" s="6" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
   </sheetData>
@@ -7471,13 +7583,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D022A599-70CC-4E40-82DD-92464C9493C6}">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView zoomScale="85" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="21.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.69921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="86.3984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.69921875" customWidth="1"/>
@@ -7485,38 +7597,38 @@
   <sheetData>
     <row r="1" spans="1:4" ht="21">
       <c r="A1" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>97</v>
-      </c>
       <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="21">
       <c r="A2" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21">
       <c r="A3" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
@@ -7524,32 +7636,38 @@
     </row>
     <row r="4" spans="1:4" ht="21">
       <c r="A4" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21">
       <c r="A5" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21">
       <c r="A6" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>4</v>
@@ -7557,10 +7675,10 @@
     </row>
     <row r="7" spans="1:4" ht="21">
       <c r="A7" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>4</v>
@@ -7568,10 +7686,10 @@
     </row>
     <row r="8" spans="1:4" ht="21">
       <c r="A8" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>4</v>
@@ -7579,10 +7697,10 @@
     </row>
     <row r="9" spans="1:4" ht="21">
       <c r="A9" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>4</v>
@@ -7590,10 +7708,10 @@
     </row>
     <row r="10" spans="1:4" ht="21">
       <c r="A10" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>4</v>
@@ -7601,10 +7719,10 @@
     </row>
     <row r="11" spans="1:4" ht="21">
       <c r="A11" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>4</v>
@@ -7612,10 +7730,10 @@
     </row>
     <row r="12" spans="1:4" ht="21">
       <c r="A12" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>4</v>
@@ -7623,10 +7741,10 @@
     </row>
     <row r="13" spans="1:4" ht="21">
       <c r="A13" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>4</v>
@@ -7634,10 +7752,10 @@
     </row>
     <row r="14" spans="1:4" ht="21">
       <c r="A14" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>4</v>
@@ -7645,10 +7763,10 @@
     </row>
     <row r="15" spans="1:4" ht="21">
       <c r="A15" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>4</v>
@@ -7656,10 +7774,10 @@
     </row>
     <row r="16" spans="1:4" ht="21">
       <c r="A16" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>4</v>
@@ -7667,10 +7785,10 @@
     </row>
     <row r="17" spans="1:3" ht="21">
       <c r="A17" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>4</v>
@@ -7678,10 +7796,10 @@
     </row>
     <row r="18" spans="1:3" ht="21">
       <c r="A18" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>4</v>
@@ -7689,10 +7807,10 @@
     </row>
     <row r="19" spans="1:3" ht="21">
       <c r="A19" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>4</v>
@@ -7700,10 +7818,10 @@
     </row>
     <row r="20" spans="1:3" ht="21">
       <c r="A20" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>4</v>
@@ -7711,10 +7829,10 @@
     </row>
     <row r="21" spans="1:3" ht="21">
       <c r="A21" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>4</v>
@@ -7722,10 +7840,10 @@
     </row>
     <row r="22" spans="1:3" ht="21">
       <c r="A22" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>4</v>
@@ -7733,10 +7851,10 @@
     </row>
     <row r="23" spans="1:3" ht="21">
       <c r="A23" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>4</v>
@@ -7744,10 +7862,10 @@
     </row>
     <row r="24" spans="1:3" ht="21">
       <c r="A24" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>4</v>
@@ -7755,10 +7873,10 @@
     </row>
     <row r="25" spans="1:3" ht="21">
       <c r="A25" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>4</v>
@@ -7766,10 +7884,10 @@
     </row>
     <row r="26" spans="1:3" ht="21">
       <c r="A26" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>4</v>
@@ -7777,10 +7895,10 @@
     </row>
     <row r="27" spans="1:3" ht="21">
       <c r="A27" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>4</v>
@@ -7788,10 +7906,10 @@
     </row>
     <row r="28" spans="1:3" ht="21">
       <c r="A28" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>4</v>
@@ -7799,10 +7917,10 @@
     </row>
     <row r="29" spans="1:3" ht="21">
       <c r="A29" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>4</v>
@@ -7810,10 +7928,10 @@
     </row>
     <row r="30" spans="1:3" ht="21">
       <c r="A30" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>4</v>
@@ -7821,10 +7939,10 @@
     </row>
     <row r="31" spans="1:3" ht="21">
       <c r="A31" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>4</v>
@@ -7832,10 +7950,10 @@
     </row>
     <row r="32" spans="1:3" ht="21">
       <c r="A32" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>4</v>
@@ -7843,10 +7961,10 @@
     </row>
     <row r="33" spans="1:3" ht="21">
       <c r="A33" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>4</v>
@@ -7854,10 +7972,10 @@
     </row>
     <row r="34" spans="1:3" ht="21">
       <c r="A34" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>4</v>
@@ -7865,10 +7983,10 @@
     </row>
     <row r="35" spans="1:3" ht="21">
       <c r="A35" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>4</v>
@@ -7876,10 +7994,10 @@
     </row>
     <row r="36" spans="1:3" ht="21">
       <c r="A36" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>4</v>
@@ -7887,7 +8005,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="B38" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
   </sheetData>
@@ -7944,45 +8062,45 @@
   <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="8.69921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="104.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="104.69921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.796875" customWidth="1"/>
+    <col min="4" max="4" width="5.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21">
       <c r="A1" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>230</v>
-      </c>
       <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="21">
       <c r="A2" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21">
       <c r="A3" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
@@ -7990,10 +8108,10 @@
     </row>
     <row r="4" spans="1:4" ht="21">
       <c r="A4" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>4</v>
@@ -8001,24 +8119,24 @@
     </row>
     <row r="5" spans="1:4" ht="21">
       <c r="A5" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21">
       <c r="A6" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>4</v>
@@ -8026,10 +8144,10 @@
     </row>
     <row r="7" spans="1:4" ht="21">
       <c r="A7" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>4</v>
@@ -8037,10 +8155,10 @@
     </row>
     <row r="8" spans="1:4" ht="21">
       <c r="A8" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>4</v>
@@ -8048,10 +8166,10 @@
     </row>
     <row r="9" spans="1:4" ht="21">
       <c r="A9" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>4</v>
@@ -8059,10 +8177,10 @@
     </row>
     <row r="10" spans="1:4" ht="21">
       <c r="A10" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>4</v>
@@ -8070,10 +8188,10 @@
     </row>
     <row r="11" spans="1:4" ht="21">
       <c r="A11" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>4</v>
@@ -8081,10 +8199,10 @@
     </row>
     <row r="12" spans="1:4" ht="21">
       <c r="A12" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>4</v>
@@ -8092,10 +8210,10 @@
     </row>
     <row r="13" spans="1:4" ht="21">
       <c r="A13" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>4</v>
@@ -8103,10 +8221,10 @@
     </row>
     <row r="14" spans="1:4" ht="21">
       <c r="A14" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>4</v>
@@ -8114,10 +8232,10 @@
     </row>
     <row r="15" spans="1:4" ht="21">
       <c r="A15" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>4</v>
@@ -8125,10 +8243,10 @@
     </row>
     <row r="16" spans="1:4" ht="21">
       <c r="A16" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>4</v>
@@ -8136,10 +8254,10 @@
     </row>
     <row r="17" spans="1:3" ht="21">
       <c r="A17" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>4</v>
@@ -8147,10 +8265,10 @@
     </row>
     <row r="18" spans="1:3" ht="21">
       <c r="A18" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>4</v>
@@ -8158,10 +8276,10 @@
     </row>
     <row r="19" spans="1:3" ht="21">
       <c r="A19" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>4</v>
@@ -8169,10 +8287,10 @@
     </row>
     <row r="20" spans="1:3" ht="21">
       <c r="A20" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>4</v>
@@ -8180,10 +8298,10 @@
     </row>
     <row r="21" spans="1:3" ht="21">
       <c r="A21" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>4</v>
@@ -8191,10 +8309,10 @@
     </row>
     <row r="22" spans="1:3" ht="21">
       <c r="A22" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>4</v>
@@ -8202,10 +8320,10 @@
     </row>
     <row r="23" spans="1:3" ht="21">
       <c r="A23" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>4</v>
@@ -8213,10 +8331,10 @@
     </row>
     <row r="24" spans="1:3" ht="21">
       <c r="A24" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>4</v>
@@ -8224,10 +8342,10 @@
     </row>
     <row r="25" spans="1:3" ht="21">
       <c r="A25" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>4</v>
@@ -8235,10 +8353,10 @@
     </row>
     <row r="26" spans="1:3" ht="21">
       <c r="A26" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>4</v>
@@ -8246,10 +8364,10 @@
     </row>
     <row r="27" spans="1:3" ht="21">
       <c r="A27" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>4</v>
@@ -8257,10 +8375,10 @@
     </row>
     <row r="28" spans="1:3" ht="21">
       <c r="A28" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>4</v>
@@ -8268,10 +8386,10 @@
     </row>
     <row r="29" spans="1:3" ht="21">
       <c r="A29" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>4</v>
@@ -8279,10 +8397,10 @@
     </row>
     <row r="30" spans="1:3" ht="21">
       <c r="A30" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>4</v>
@@ -8290,10 +8408,10 @@
     </row>
     <row r="31" spans="1:3" ht="21">
       <c r="A31" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>4</v>
@@ -8301,10 +8419,10 @@
     </row>
     <row r="32" spans="1:3" ht="21">
       <c r="A32" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>4</v>
@@ -8312,10 +8430,10 @@
     </row>
     <row r="33" spans="1:3" ht="21">
       <c r="A33" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>4</v>
@@ -8323,10 +8441,10 @@
     </row>
     <row r="34" spans="1:3" ht="21">
       <c r="A34" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>4</v>
@@ -8334,10 +8452,10 @@
     </row>
     <row r="35" spans="1:3" ht="21">
       <c r="A35" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>4</v>
@@ -8403,38 +8521,38 @@
   <sheetData>
     <row r="1" spans="1:4" ht="21">
       <c r="A1" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>265</v>
-      </c>
       <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="21">
       <c r="A2" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21">
       <c r="A3" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
@@ -8442,10 +8560,10 @@
     </row>
     <row r="4" spans="1:4" ht="21">
       <c r="A4" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>4</v>
@@ -8453,10 +8571,10 @@
     </row>
     <row r="5" spans="1:4" ht="21">
       <c r="A5" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>4</v>
@@ -8464,10 +8582,10 @@
     </row>
     <row r="6" spans="1:4" ht="21">
       <c r="A6" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>4</v>
@@ -8475,10 +8593,10 @@
     </row>
     <row r="7" spans="1:4" ht="21">
       <c r="A7" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>4</v>
@@ -8486,10 +8604,10 @@
     </row>
     <row r="8" spans="1:4" ht="21">
       <c r="A8" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>4</v>
@@ -8497,10 +8615,10 @@
     </row>
     <row r="9" spans="1:4" ht="21">
       <c r="A9" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>4</v>
@@ -8508,10 +8626,10 @@
     </row>
     <row r="10" spans="1:4" ht="21">
       <c r="A10" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>4</v>
@@ -8519,10 +8637,10 @@
     </row>
     <row r="11" spans="1:4" ht="21">
       <c r="A11" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>4</v>
@@ -8530,10 +8648,10 @@
     </row>
     <row r="12" spans="1:4" ht="21">
       <c r="A12" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>4</v>
@@ -8541,10 +8659,10 @@
     </row>
     <row r="13" spans="1:4" ht="21">
       <c r="A13" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>4</v>
@@ -8552,10 +8670,10 @@
     </row>
     <row r="14" spans="1:4" ht="21">
       <c r="A14" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>4</v>
@@ -8563,10 +8681,10 @@
     </row>
     <row r="15" spans="1:4" ht="21">
       <c r="A15" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>4</v>
@@ -8574,10 +8692,10 @@
     </row>
     <row r="16" spans="1:4" ht="21">
       <c r="A16" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>4</v>
@@ -8585,10 +8703,10 @@
     </row>
     <row r="17" spans="1:3" ht="21">
       <c r="A17" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>4</v>
@@ -8596,10 +8714,10 @@
     </row>
     <row r="18" spans="1:3" ht="21">
       <c r="A18" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>4</v>
@@ -8607,10 +8725,10 @@
     </row>
     <row r="19" spans="1:3" ht="21">
       <c r="A19" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>4</v>
@@ -8659,10 +8777,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="21">
       <c r="A1" s="5" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>4</v>
@@ -8670,10 +8788,10 @@
     </row>
     <row r="2" spans="1:3" ht="21">
       <c r="A2" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>452</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>454</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>4</v>
@@ -8681,10 +8799,10 @@
     </row>
     <row r="3" spans="1:3" ht="21">
       <c r="A3" s="5" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
@@ -8692,10 +8810,10 @@
     </row>
     <row r="4" spans="1:3" ht="21">
       <c r="A4" s="5" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>4</v>
@@ -8703,10 +8821,10 @@
     </row>
     <row r="5" spans="1:3" ht="21">
       <c r="A5" s="5" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>4</v>
@@ -8714,10 +8832,10 @@
     </row>
     <row r="6" spans="1:3" ht="21">
       <c r="A6" s="5" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>4</v>
@@ -8725,10 +8843,10 @@
     </row>
     <row r="7" spans="1:3" ht="21">
       <c r="A7" s="5" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>4</v>
@@ -8736,10 +8854,10 @@
     </row>
     <row r="8" spans="1:3" ht="21">
       <c r="A8" s="5" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>4</v>
@@ -8747,10 +8865,10 @@
     </row>
     <row r="9" spans="1:3" ht="21">
       <c r="A9" s="5" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>4</v>
@@ -8758,10 +8876,10 @@
     </row>
     <row r="10" spans="1:3" ht="21">
       <c r="A10" s="5" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>4</v>
@@ -8769,36 +8887,36 @@
     </row>
     <row r="11" spans="1:3" ht="21">
       <c r="A11" s="5" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="18">
       <c r="A31" s="11" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B31" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D31" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="B32" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="10" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="10" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
   </sheetData>
